--- a/Learning/Competitive_Programming_Questions_Review.XLSX
+++ b/Learning/Competitive_Programming_Questions_Review.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\only one folder\CompetitiveProgramming Github Repo\Competitive-Programming\Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15460D1E-2DEC-4144-A8D8-80E029940190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69EC4D5C-1099-4C46-9AB9-CB4AECD57557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,17 +18,25 @@
     <sheet name="CodeChef" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Problem</t>
   </si>
@@ -70,6 +78,15 @@
     <t>Figured how to everything but how to get two
  coprime numbers(smoothly). Should have 
 looked extended gcd, code would have been a lot easier. Should have thought about a single bit.</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Tree, Level Order Traversal</t>
   </si>
 </sst>
 </file>
@@ -419,7 +436,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -479,13 +496,27 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>103</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F5" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{865FEB98-CFD3-4DC9-B1AC-EB47AE0D16C2}"/>
+    <hyperlink ref="A3" r:id="rId2" display="103" xr:uid="{1EE672D1-03B0-4866-8974-114F3DE6477E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -493,12 +524,87 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF84CB3E-9CC1-4C18-9FBC-28E42E616AFC}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" customWidth="1"/>
+    <col min="4" max="4" width="27.109375" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
+    <col min="6" max="6" width="35.5546875" customWidth="1"/>
+    <col min="7" max="7" width="44.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="str">
+        <f>LeetCode!A1</f>
+        <v>Problem</v>
+      </c>
+      <c r="B1" s="1" t="str">
+        <f>LeetCode!B1</f>
+        <v>Difficulty</v>
+      </c>
+      <c r="C1" s="1" t="str">
+        <f>LeetCode!C1</f>
+        <v>Status</v>
+      </c>
+      <c r="D1" s="1" t="str">
+        <f>LeetCode!D1</f>
+        <v>Topics</v>
+      </c>
+      <c r="E1" s="1" t="str">
+        <f>LeetCode!E1</f>
+        <v>Metacognition</v>
+      </c>
+      <c r="F1" s="1" t="str">
+        <f>LeetCode!F1</f>
+        <v>Takeaways</v>
+      </c>
+      <c r="G1" s="1" t="str">
+        <f>LeetCode!G1</f>
+        <v>Analysis</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="str">
+        <f>LeetCode!A2</f>
+        <v>1722/D</v>
+      </c>
+      <c r="B2">
+        <f>LeetCode!B2</f>
+        <v>1100</v>
+      </c>
+      <c r="C2" t="str">
+        <f>LeetCode!C2</f>
+        <v>Not Done</v>
+      </c>
+      <c r="D2" t="str">
+        <f>LeetCode!D2</f>
+        <v>gcd, binary Exponentiation</v>
+      </c>
+      <c r="E2" t="str">
+        <f>LeetCode!E2</f>
+        <v>(copy/paste from file)</v>
+      </c>
+      <c r="F2" s="4" t="str">
+        <f>LeetCode!F2</f>
+        <v>Powers of 2 are Coprime with any   
+odd. Also got lucky when bs worked, don't rely on it.</v>
+      </c>
+      <c r="G2" s="5" t="str">
+        <f>LeetCode!G2</f>
+        <v>Figured how to everything but how to get two
+ coprime numbers(smoothly). Should have 
+looked extended gcd, code would have been a lot easier. Should have thought about a single bit.</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Learning/Competitive_Programming_Questions_Review.XLSX
+++ b/Learning/Competitive_Programming_Questions_Review.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\only one folder\CompetitiveProgramming Github Repo\Competitive-Programming\Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69EC4D5C-1099-4C46-9AB9-CB4AECD57557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C2055C-5187-42F5-A782-CC2997707AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>Problem</t>
   </si>
@@ -87,6 +87,56 @@
   </si>
   <si>
     <t>Tree, Level Order Traversal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Though of Basic Approach. Using queue
+Doing Bfs and going for every level and for all odd levels reversing the order and then storing it. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) First Method that stuck was BFs and using Queue. Implemented it in MetaCognition.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2) Using Recursion. </t>
+  </si>
+  <si>
+    <t>Here we have created a 2-d 
+for storing ans. A new recursive function is called 
+2-d Vector and the level 0. If we exhaust the root 
+we return but if there exists a root and the level is 
+greater than res.size we add a empty 1-d vector
+and then start filling that level. After returning and 
+filling the 2-d vector we reverse all the odd levels.</t>
+  </si>
+  <si>
+    <t>3) Using two Stacks.</t>
+  </si>
+  <si>
+    <t>As we have to store the current level but also make sure while we are 
+popping we have to store it's children somewhere. That's why we use  
+another stack. But the way of storing differs because the evens levels will store the elements in (L to R) in stack (R to L). and odd level (R to L) in stack (L To R). Also make sure while inserting the elements of the odd level we have to first insert the right child and then the left child . I made the mistake there.</t>
+  </si>
+  <si>
+    <t>Using the queue and storing the ans in the 1-d vector and if the level was
+odd we reverse the vector and then store in the 2-d vector.</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Same</t>
+  </si>
+  <si>
+    <t>Thought the same Approach of BFS and using
+a queue and then after that reversing the 2-d 
+vector.</t>
+  </si>
+  <si>
+    <t>1) Using BFs and queue</t>
+  </si>
+  <si>
+    <t>Using the queue and BFS and finding the levels in a 2-d Vector and 
+then reversing the 2-D vector.</t>
   </si>
 </sst>
 </file>
@@ -118,12 +168,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -139,19 +195,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -433,90 +492,146 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" customWidth="1"/>
-    <col min="3" max="3" width="15.77734375" customWidth="1"/>
-    <col min="4" max="4" width="27.44140625" customWidth="1"/>
-    <col min="5" max="5" width="29.5546875" customWidth="1"/>
-    <col min="6" max="6" width="33.77734375" customWidth="1"/>
-    <col min="7" max="7" width="58.88671875" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" customWidth="1"/>
+    <col min="5" max="5" width="27.44140625" customWidth="1"/>
+    <col min="6" max="6" width="35.88671875" customWidth="1"/>
+    <col min="7" max="7" width="41.6640625" customWidth="1"/>
+    <col min="8" max="8" width="58.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:8" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>1100</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+    <row r="3" spans="1:8" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>44825</v>
+      </c>
+      <c r="B3" s="2">
         <v>103</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>15</v>
       </c>
+      <c r="F3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F5" s="3"/>
+    <row r="4" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="G4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="G5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="2">
+        <v>107</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{865FEB98-CFD3-4DC9-B1AC-EB47AE0D16C2}"/>
-    <hyperlink ref="A3" r:id="rId2" display="103" xr:uid="{1EE672D1-03B0-4866-8974-114F3DE6477E}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{865FEB98-CFD3-4DC9-B1AC-EB47AE0D16C2}"/>
+    <hyperlink ref="B3" r:id="rId2" display="103" xr:uid="{1EE672D1-03B0-4866-8974-114F3DE6477E}"/>
+    <hyperlink ref="B6" r:id="rId3" display="107" xr:uid="{E38E8DC0-8D8F-482B-9F7A-CDB89AE91C33}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -543,62 +658,62 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
-        <f>LeetCode!A1</f>
+        <f>LeetCode!B1</f>
         <v>Problem</v>
       </c>
       <c r="B1" s="1" t="str">
-        <f>LeetCode!B1</f>
+        <f>LeetCode!C1</f>
         <v>Difficulty</v>
       </c>
       <c r="C1" s="1" t="str">
-        <f>LeetCode!C1</f>
+        <f>LeetCode!D1</f>
         <v>Status</v>
       </c>
       <c r="D1" s="1" t="str">
-        <f>LeetCode!D1</f>
+        <f>LeetCode!E1</f>
         <v>Topics</v>
       </c>
       <c r="E1" s="1" t="str">
-        <f>LeetCode!E1</f>
+        <f>LeetCode!F1</f>
         <v>Metacognition</v>
       </c>
       <c r="F1" s="1" t="str">
-        <f>LeetCode!F1</f>
+        <f>LeetCode!G1</f>
         <v>Takeaways</v>
       </c>
       <c r="G1" s="1" t="str">
-        <f>LeetCode!G1</f>
+        <f>LeetCode!H1</f>
         <v>Analysis</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
-        <f>LeetCode!A2</f>
+        <f>LeetCode!B2</f>
         <v>1722/D</v>
       </c>
       <c r="B2">
-        <f>LeetCode!B2</f>
+        <f>LeetCode!C2</f>
         <v>1100</v>
       </c>
       <c r="C2" t="str">
-        <f>LeetCode!C2</f>
+        <f>LeetCode!D2</f>
         <v>Not Done</v>
       </c>
       <c r="D2" t="str">
-        <f>LeetCode!D2</f>
+        <f>LeetCode!E2</f>
         <v>gcd, binary Exponentiation</v>
       </c>
       <c r="E2" t="str">
-        <f>LeetCode!E2</f>
+        <f>LeetCode!F2</f>
         <v>(copy/paste from file)</v>
       </c>
-      <c r="F2" s="4" t="str">
-        <f>LeetCode!F2</f>
+      <c r="F2" s="3" t="str">
+        <f>LeetCode!G2</f>
         <v>Powers of 2 are Coprime with any   
 odd. Also got lucky when bs worked, don't rely on it.</v>
       </c>
-      <c r="G2" s="5" t="str">
-        <f>LeetCode!G2</f>
+      <c r="G2" s="4" t="str">
+        <f>LeetCode!H2</f>
         <v>Figured how to everything but how to get two
  coprime numbers(smoothly). Should have 
 looked extended gcd, code would have been a lot easier. Should have thought about a single bit.</v>

--- a/Learning/Competitive_Programming_Questions_Review.XLSX
+++ b/Learning/Competitive_Programming_Questions_Review.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\only one folder\CompetitiveProgramming Github Repo\Competitive-Programming\Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C2055C-5187-42F5-A782-CC2997707AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1BD0ABE-F09D-4483-97AA-EDC6C22BC12E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>Problem</t>
   </si>
@@ -137,6 +137,38 @@
   <si>
     <t>Using the queue and BFS and finding the levels in a 2-d Vector and 
 then reversing the 2-D vector.</t>
+  </si>
+  <si>
+    <t>2) Using BFS and insert</t>
+  </si>
+  <si>
+    <t>Here We were actually storing each level at the start of the res vector
+using the insert function</t>
+  </si>
+  <si>
+    <t>3) Using Recursion,</t>
+  </si>
+  <si>
+    <t>In Recursion You have to first find the maximum depth of the Binary Tree
+in order to assign the number of rows in the res vector us assign function.
+As well depth helps us to find the distance of that level from the lowest 
+level (that is the main purpose) and using indexing we store the ith  level
+in the (depth - 1 - i)th level which was the demand of the question.</t>
+  </si>
+  <si>
+    <t>4) Using queue and depth of Binary Tree…</t>
+  </si>
+  <si>
+    <t>Rather than reversing the 2-d array we can use the depth for indexing 
+and store the values accordingly and we can also define the size of res 
+at first with the help of the depth.</t>
+  </si>
+  <si>
+    <t>5) Using stack&lt;vector&lt;int&gt;&gt; and queue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Store every level in the stack and then transfer to the res vector.
+</t>
   </si>
 </sst>
 </file>
@@ -195,7 +227,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -210,7 +242,6 @@
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -492,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -611,7 +642,7 @@
       <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>14</v>
       </c>
       <c r="E6" t="s">
@@ -625,6 +656,38 @@
       </c>
       <c r="H6" s="4" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="G8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="G9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Learning/Competitive_Programming_Questions_Review.XLSX
+++ b/Learning/Competitive_Programming_Questions_Review.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\only one folder\CompetitiveProgramming Github Repo\Competitive-Programming\Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1BD0ABE-F09D-4483-97AA-EDC6C22BC12E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A308E84-C899-4C99-8CA2-8BD4FCCE5D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
   <si>
     <t>Problem</t>
   </si>
@@ -169,6 +169,40 @@
   <si>
     <t xml:space="preserve">Store every level in the stack and then transfer to the res vector.
 </t>
+  </si>
+  <si>
+    <t>Best Result</t>
+  </si>
+  <si>
+    <t>Binary Tree,  Level Order 
+Traversal</t>
+  </si>
+  <si>
+    <t>Implemented Using the BFS and queue</t>
+  </si>
+  <si>
+    <t>1) Using BFS and queue.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Similar Implementation to Binary Level Order Traversal. Only here 
+the difference is that we have to push all the children of the root.
+</t>
+  </si>
+  <si>
+    <t>Here we store two parameters in the stack the node pointers and the 
+level. So we are pushing the nodes in the stack in reverse order so that 
+they can be popped in the intended order.</t>
+  </si>
+  <si>
+    <t>3) Recursive DFS</t>
+  </si>
+  <si>
+    <t>2) Using Iterative DFS</t>
+  </si>
+  <si>
+    <t>res and level is added in Private access so that during function also we 
+don't have to pass them. We can use them directly.Helper function fills
+the res with the required levels.</t>
   </si>
 </sst>
 </file>
@@ -227,7 +261,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -242,6 +276,7 @@
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -523,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="B9" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -625,6 +660,9 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
       <c r="G5" s="5" t="s">
         <v>20</v>
       </c>
@@ -667,6 +705,9 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
       <c r="G8" t="s">
         <v>30</v>
       </c>
@@ -688,6 +729,48 @@
       </c>
       <c r="H10" s="4" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="2">
+        <v>429</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="G12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="G13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -695,6 +778,7 @@
     <hyperlink ref="B2" r:id="rId1" xr:uid="{865FEB98-CFD3-4DC9-B1AC-EB47AE0D16C2}"/>
     <hyperlink ref="B3" r:id="rId2" display="103" xr:uid="{1EE672D1-03B0-4866-8974-114F3DE6477E}"/>
     <hyperlink ref="B6" r:id="rId3" display="107" xr:uid="{E38E8DC0-8D8F-482B-9F7A-CDB89AE91C33}"/>
+    <hyperlink ref="B11" r:id="rId4" display="429" xr:uid="{BFE9ADE5-ED73-41D1-B6E4-743C834C8728}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Learning/Competitive_Programming_Questions_Review.XLSX
+++ b/Learning/Competitive_Programming_Questions_Review.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\only one folder\CompetitiveProgramming Github Repo\Competitive-Programming\Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A308E84-C899-4C99-8CA2-8BD4FCCE5D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE2CC0D1-D06F-486A-A083-BF388AC09A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -261,7 +261,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -276,7 +276,6 @@
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -560,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B9" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -738,10 +737,10 @@
       <c r="B11" s="2">
         <v>429</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" t="s">
         <v>13</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="7" t="s">
         <v>14</v>
       </c>
       <c r="E11" s="4" t="s">

--- a/Learning/Competitive_Programming_Questions_Review.XLSX
+++ b/Learning/Competitive_Programming_Questions_Review.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\only one folder\CompetitiveProgramming Github Repo\Competitive-Programming\Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE2CC0D1-D06F-486A-A083-BF388AC09A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9EFDB98-526C-4F36-9A52-1CF1268530DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
   <si>
     <t>Problem</t>
   </si>
@@ -203,6 +203,33 @@
     <t>res and level is added in Private access so that during function also we 
 don't have to pass them. We can use them directly.Helper function fills
 the res with the required levels.</t>
+  </si>
+  <si>
+    <t>Binary Tree, Level Order Traversal</t>
+  </si>
+  <si>
+    <t>639-Medium</t>
+  </si>
+  <si>
+    <t>Average Levels Of
+a Binary Tree.</t>
+  </si>
+  <si>
+    <t>1) Using  Bfs and queue and using a double temp
+variable</t>
+  </si>
+  <si>
+    <t>We set the precision first and rather than storing the level we just take
+summation of the values and divide them by the level size and store it 
+ans vector(double).</t>
+  </si>
+  <si>
+    <t>2) using dfs</t>
+  </si>
+  <si>
+    <t>Here we declared vector&lt;double&gt; for average and vector&lt;int&gt; elements
+for storing the number of elements at each step for every level. Classic
+dfs approach and then building the left and right subtrees.</t>
   </si>
 </sst>
 </file>
@@ -261,7 +288,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -276,6 +303,10 @@
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -557,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -772,12 +803,44 @@
         <v>44</v>
       </c>
     </row>
+    <row r="14" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>44826</v>
+      </c>
+      <c r="B14" s="8">
+        <v>629</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="G15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{865FEB98-CFD3-4DC9-B1AC-EB47AE0D16C2}"/>
     <hyperlink ref="B3" r:id="rId2" display="103" xr:uid="{1EE672D1-03B0-4866-8974-114F3DE6477E}"/>
     <hyperlink ref="B6" r:id="rId3" display="107" xr:uid="{E38E8DC0-8D8F-482B-9F7A-CDB89AE91C33}"/>
     <hyperlink ref="B11" r:id="rId4" display="429" xr:uid="{BFE9ADE5-ED73-41D1-B6E4-743C834C8728}"/>
+    <hyperlink ref="B14" r:id="rId5" display="629" xr:uid="{50519108-4CFC-4427-BAD8-61BDEE4A744A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Learning/Competitive_Programming_Questions_Review.XLSX
+++ b/Learning/Competitive_Programming_Questions_Review.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\only one folder\CompetitiveProgramming Github Repo\Competitive-Programming\Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9EFDB98-526C-4F36-9A52-1CF1268530DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD95EF12-C42B-4EAE-8600-FF312EBB018E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
   <si>
     <t>Problem</t>
   </si>
@@ -588,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -832,6 +832,11 @@
       </c>
       <c r="H15" s="4" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Learning/Competitive_Programming_Questions_Review.XLSX
+++ b/Learning/Competitive_Programming_Questions_Review.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\only one folder\CompetitiveProgramming Github Repo\Competitive-Programming\Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD95EF12-C42B-4EAE-8600-FF312EBB018E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB49060-D76B-4C92-9D6F-0AA6B88160D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,8 @@
     <sheet name="LeetCode" sheetId="1" r:id="rId1"/>
     <sheet name="CodeForces" sheetId="2" r:id="rId2"/>
     <sheet name="CodeChef" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Contest Evaluation" sheetId="4" r:id="rId4"/>
+    <sheet name="Strategies" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="64">
   <si>
     <t>Problem</t>
   </si>
@@ -231,12 +232,60 @@
 for storing the number of elements at each step for every level. Classic
 dfs approach and then building the left and right subtrees.</t>
   </si>
+  <si>
+    <t>Important - Do questions in your Rating range. Don't try tougher problems…. Complete all categories till that level to move onto the next level.</t>
+  </si>
+  <si>
+    <t>Practice Practice and Practice.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strategies : </t>
+  </si>
+  <si>
+    <t>1) Do 2 question daily on Number Theory and CodeNCode Playlist</t>
+  </si>
+  <si>
+    <t>2) Solve Every Category till 1000</t>
+  </si>
+  <si>
+    <t>Cousins in Binary 
+Tree</t>
+  </si>
+  <si>
+    <t>Binary tree, DFS, BFS</t>
+  </si>
+  <si>
+    <t>First tried to apply BFS approach but 
+didn't knew how to approach with BFS
+and didn't even tried DFS</t>
+  </si>
+  <si>
+    <t>1) Using BFS and some bool variables</t>
+  </si>
+  <si>
+    <t>2) Here I used bool variables f1 and f2 to indicate if they are present at
+that particular level. Next while checking I ensured that both don't have 
+the same parent. That is to check whether the current root's left child 
+and right child does not have the same value.If they possessed the same
+the same value we simply return false.  After the doing the usual
+bfs process we at the end check whether they were present at the same 
+level or not.</t>
+  </si>
+  <si>
+    <t>2) Using DFS and using some int variables.</t>
+  </si>
+  <si>
+    <t>In DFS, the parameters we require are we need to know the level, 
+parent_value of the current node, x, y and root. Ultimately our main 
+goal is to find the xparent, yparent, xdepth and ydepth which we have declared in private. If the values of xdepth and ydepth matches and 
+xparent and yparent are not equal then we return true or else false.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,6 +305,30 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -288,7 +361,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -303,8 +376,16 @@
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -588,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="H29" sqref="H28:H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -807,13 +888,13 @@
       <c r="A14" s="6">
         <v>44826</v>
       </c>
-      <c r="B14" s="8">
-        <v>629</v>
+      <c r="B14" s="2">
+        <v>639</v>
       </c>
       <c r="C14" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>47</v>
       </c>
       <c r="E14" t="s">
@@ -834,9 +915,38 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>24</v>
+      </c>
+      <c r="B16">
+        <v>993</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="7:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="G17" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -845,7 +955,7 @@
     <hyperlink ref="B3" r:id="rId2" display="103" xr:uid="{1EE672D1-03B0-4866-8974-114F3DE6477E}"/>
     <hyperlink ref="B6" r:id="rId3" display="107" xr:uid="{E38E8DC0-8D8F-482B-9F7A-CDB89AE91C33}"/>
     <hyperlink ref="B11" r:id="rId4" display="429" xr:uid="{BFE9ADE5-ED73-41D1-B6E4-743C834C8728}"/>
-    <hyperlink ref="B14" r:id="rId5" display="629" xr:uid="{50519108-4CFC-4427-BAD8-61BDEE4A744A}"/>
+    <hyperlink ref="B14" r:id="rId5" display="639" xr:uid="{3625D7CD-9563-492D-A6B8-DCE33BFAC60D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -853,10 +963,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF84CB3E-9CC1-4C18-9FBC-28E42E616AFC}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -931,6 +1041,16 @@
         <v>Figured how to everything but how to get two
  coprime numbers(smoothly). Should have 
 looked extended gcd, code would have been a lot easier. Should have thought about a single bit.</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A4" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A6" s="10" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -952,12 +1072,51 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49C8E076-6495-494E-BF9F-2D5317908764}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="11"/>
+      <c r="B2" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ABEAF1E-B6E4-4310-A214-2873C4AF1A34}">
+  <dimension ref="A3:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Learning/Competitive_Programming_Questions_Review.XLSX
+++ b/Learning/Competitive_Programming_Questions_Review.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\only one folder\CompetitiveProgramming Github Repo\Competitive-Programming\Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB49060-D76B-4C92-9D6F-0AA6B88160D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5470CC6B-370A-40EF-9365-FA7CCBDE2BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="106">
   <si>
     <t>Problem</t>
   </si>
@@ -279,6 +279,164 @@
 parent_value of the current node, x, y and root. Ultimately our main 
 goal is to find the xparent, yparent, xdepth and ydepth which we have declared in private. If the values of xdepth and ydepth matches and 
 xparent and yparent are not equal then we return true or else false.</t>
+  </si>
+  <si>
+    <t>Easy</t>
+  </si>
+  <si>
+    <t>Majority Element</t>
+  </si>
+  <si>
+    <t>Sorting</t>
+  </si>
+  <si>
+    <t>Here it took me a lot of time to analyse the
+number of variable required. But I did this
+question in contest fastly</t>
+  </si>
+  <si>
+    <t>1) Using Sort and four Variables</t>
+  </si>
+  <si>
+    <t>2) Not used Map but can also be used here.</t>
+  </si>
+  <si>
+    <t>We require to store the variables maxFreq, freq, curr and majorityElement
+and before that we need to sort the array.</t>
+  </si>
+  <si>
+    <t>Efficient as this question would have been done in O(n) time Complexity.</t>
+  </si>
+  <si>
+    <t>Valid Anagram</t>
+  </si>
+  <si>
+    <t>Sorting, String,  Hash Table</t>
+  </si>
+  <si>
+    <t>I thought that if the sizes don't match then 
+return false. Or else sort the strings and then
+check for each character. If they match move
+in the loop but if they vary return false.
+If all the characters are matched we come
+out of the loop and we return true.</t>
+  </si>
+  <si>
+    <t>1) Using Sort and check through a loop</t>
+  </si>
+  <si>
+    <t>Check their size and then comparing them through for loop.</t>
+  </si>
+  <si>
+    <t>2) Using sort and directly checking them while 
+returning</t>
+  </si>
+  <si>
+    <t>return s1 == s2 rather than using a for loop.</t>
+  </si>
+  <si>
+    <t>3) Using array of size 26 and storing the freq of all
+characters.</t>
+  </si>
+  <si>
+    <t>Check their size. Create two arrays to store the frequencies of the char
+of s and t. And then compare them and if mismatch happen return false  
+or else true.</t>
+  </si>
+  <si>
+    <t>Efficient Way</t>
+  </si>
+  <si>
+    <t>4) Using Unorderedmap</t>
+  </si>
+  <si>
+    <t>We can use the unordered map &lt;char, int&gt;. We go in the for loop add 
+for the character in s and subtract the frequency for the character of t. 
+Now we iterate through the map and check if any element has got non-
+zero frequency if yes then they don’t match or else they match.</t>
+  </si>
+  <si>
+    <t>Missing Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I thought if we have to find the missing num
+then simply sort the array and do the linear
+Search. </t>
+  </si>
+  <si>
+    <t>1) Using sort and Linear Search</t>
+  </si>
+  <si>
+    <t>To find the missing number from 1 to N. We have to sort the array and 
+then using for loop which i is not equal to nums[i] and then return that i.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2) Using Maths </t>
+  </si>
+  <si>
+    <t>return (n * (n - 1))/2 - totalSum, You will get the missing numbers.</t>
+  </si>
+  <si>
+    <t>3) Using Bit Manipulation</t>
+  </si>
+  <si>
+    <t>We Know that Xor operation on similar numbers results to zero.We 
+store our answer in res variable.  Therefore
+We go through the xor of all the numbers in the nums arrays simultaneously 
+we also go through i = 0 to n. Then obviously only missing number would 
+be left in the answer.</t>
+  </si>
+  <si>
+    <t>4) Using maths and accumulate</t>
+  </si>
+  <si>
+    <t>Accumulate helps us to find the the sum of the array or vector. 
+Return (n * (n - 1))/2 - accumulatedSum;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Same </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intersection of
+two arrays </t>
+  </si>
+  <si>
+    <t>Sorting, Maths</t>
+  </si>
+  <si>
+    <t>My intuition told me that use set to find 
+unique elements in the first array. And then
+compare them in the second one.</t>
+  </si>
+  <si>
+    <t>1) Using unordered set and find and erase.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First create a set of elements of the first vector. Then iterate through
+the elements of the second vector and while doing that check if they are
+present in the set or not. If yes then add them to answer vector and 
+erase that element from that set. Rememeber we need unique elements
+for the answer vector. Using find for finding the current element in the 
+set. </t>
+  </si>
+  <si>
+    <t>Find the Difference</t>
+  </si>
+  <si>
+    <t>Sorting, Hash Table, binary Search</t>
+  </si>
+  <si>
+    <t>Sorting, String.</t>
+  </si>
+  <si>
+    <t>I sorted the strings and then proceeded 
+with checking.</t>
+  </si>
+  <si>
+    <t>1) Using sort function and string comparing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sorted the strings and </t>
   </si>
 </sst>
 </file>
@@ -361,7 +519,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -385,9 +543,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -669,10 +824,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="H29" sqref="H28:H29"/>
+    <sheetView tabSelected="1" topLeftCell="B26" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -925,7 +1080,7 @@
       <c r="C16" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="8" t="s">
         <v>57</v>
       </c>
       <c r="E16" t="s">
@@ -941,12 +1096,201 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="7:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="G17" t="s">
         <v>62</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>44828</v>
+      </c>
+      <c r="B18">
+        <v>169</v>
+      </c>
+      <c r="C18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G19" t="s">
+        <v>69</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20">
+        <v>242</v>
+      </c>
+      <c r="C20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G20" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G21" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="G22" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="F23" t="s">
+        <v>81</v>
+      </c>
+      <c r="G23" t="s">
+        <v>82</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>268</v>
+      </c>
+      <c r="C24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" t="s">
+        <v>96</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G24" t="s">
+        <v>86</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G25" t="s">
+        <v>88</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="G26" t="s">
+        <v>90</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G27" t="s">
+        <v>92</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28">
+        <v>349</v>
+      </c>
+      <c r="C28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E28" t="s">
+        <v>101</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G28" t="s">
+        <v>98</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29">
+        <v>389</v>
+      </c>
+      <c r="C29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" t="s">
+        <v>102</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G29" t="s">
+        <v>104</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/Learning/Competitive_Programming_Questions_Review.XLSX
+++ b/Learning/Competitive_Programming_Questions_Review.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\only one folder\CompetitiveProgramming Github Repo\Competitive-Programming\Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5470CC6B-370A-40EF-9365-FA7CCBDE2BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7FC27E6-F74B-4606-967C-F49ED34365AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="130">
   <si>
     <t>Problem</t>
   </si>
@@ -436,7 +436,114 @@
     <t>1) Using sort function and string comparing</t>
   </si>
   <si>
-    <t xml:space="preserve">Sorted the strings and </t>
+    <t>Sorted the strings and then checked for the character which was not 
+matching.</t>
+  </si>
+  <si>
+    <t>2) Using Ascii values.</t>
+  </si>
+  <si>
+    <t>Efficient way</t>
+  </si>
+  <si>
+    <t>We are going to use the Ascii values. Here we add the ascii values of the
+characters of string t and subtract the ascii values of the characters of the
+string s. Then the remaining ans will be containing the ascii value of the 
+differentiating character. return as char(ans).</t>
+  </si>
+  <si>
+    <t>Third Maximum 
+number.</t>
+  </si>
+  <si>
+    <t>Sorting, Set, Array</t>
+  </si>
+  <si>
+    <t>I thought of using the set for having unique
+elements.</t>
+  </si>
+  <si>
+    <t>1) Using ordered set</t>
+  </si>
+  <si>
+    <t>First create a set of the nums array. Then if st.size &lt;= 3 return the last
+(maximum) element using st.rbegin(). Or else iterate two positions back
+and return the answer. For that we can use a reverse_iterator. 
+Set&lt;int&gt;::reverse_iterator it = st.rbegin(); If you do it++ in it it iterates in 
+backward direction.</t>
+  </si>
+  <si>
+    <t>2) Using Maps</t>
+  </si>
+  <si>
+    <t>Using Map also implemented it and there we need to store an extra 
+for storing the keys.</t>
+  </si>
+  <si>
+    <t>Assign Cookies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basic Intuition was to sort the greed and size
+array. And start assigning cookies starting 
+from the largest child. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Using size and iterating from the back, starting 
+by checking if we can give the greedy child some 
+cookie or not. </t>
+  </si>
+  <si>
+    <t>Sorted the size and the greedy array. Then started by checking that if we 
+can give the most greedy child our biggest cookie or not. If not try giving
+to the less greedy child than him. If yes then assign him the cookie move
+your two pointers back by one position.</t>
+  </si>
+  <si>
+    <t>Sorting, Two Pointers, Greedy, Array</t>
+  </si>
+  <si>
+    <t>2) Using Maps and lower_bound</t>
+  </si>
+  <si>
+    <t>First storing all the sizes in the map. Then keeping a count variable. 
+Iterating through the greed map. Checking if we can assign a cookie 
+to the current child using lower_bound for that greed in the map. If 
+that iterator doesn't point to the end then count++ and decrease the 
+frequency of that size by -1 and if the frequency is reduced to zero 
+then erase the character mp.erase((*it).first)). and at the end return 
+count.</t>
+  </si>
+  <si>
+    <t>Relative Ranks.</t>
+  </si>
+  <si>
+    <t>Sorting, Map, Priority_Queue</t>
+  </si>
+  <si>
+    <t>I thought of using a map because storing the player no. corresponding to the score.</t>
+  </si>
+  <si>
+    <t>1) Using Map and sort function.</t>
+  </si>
+  <si>
+    <t>2) Using Priority_queue</t>
+  </si>
+  <si>
+    <t>Using a Map and corresponding to every score storing their position.
+Then after that sorting the score array in the descending order. Then 
+in for loop going and iterating like searching for I == 0, has the maximum
+score and where it is stored in the original score array will be indicated 
+by the map and hence at that position we will store the "gold medal". 
+Similarly for the other.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In priority queue we will store the score and the index(rank) of the 
+player. We know that in priority queue the elements are sorted on the 
+basis of the first element(max heap). Therefore we will keep the i = 0, 
+indicating the largest score. Now if we have the largest score at the top
+we fetch the index where it originally was and store "gold Medal" over
+there and similar conditions for the other medals and positions. This
+process continued till queue is not empty. </t>
   </si>
 </sst>
 </file>
@@ -824,10 +931,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B26" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="B34" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1226,6 +1333,9 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="F26" t="s">
+        <v>81</v>
+      </c>
       <c r="G26" t="s">
         <v>90</v>
       </c>
@@ -1277,7 +1387,7 @@
       <c r="C29" t="s">
         <v>64</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="7" t="s">
         <v>100</v>
       </c>
       <c r="E29" t="s">
@@ -1291,6 +1401,125 @@
       </c>
       <c r="H29" s="4" t="s">
         <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="F30" t="s">
+        <v>107</v>
+      </c>
+      <c r="G30" t="s">
+        <v>106</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31">
+        <v>414</v>
+      </c>
+      <c r="C31" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E31" t="s">
+        <v>110</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G31" t="s">
+        <v>112</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G32" t="s">
+        <v>114</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33">
+        <v>455</v>
+      </c>
+      <c r="C33" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E33" t="s">
+        <v>120</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="F34" t="s">
+        <v>81</v>
+      </c>
+      <c r="G34" t="s">
+        <v>121</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35">
+        <v>506</v>
+      </c>
+      <c r="C35" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E35" t="s">
+        <v>124</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G35" t="s">
+        <v>126</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="F36" t="s">
+        <v>81</v>
+      </c>
+      <c r="G36" t="s">
+        <v>127</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/Learning/Competitive_Programming_Questions_Review.XLSX
+++ b/Learning/Competitive_Programming_Questions_Review.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\only one folder\CompetitiveProgramming Github Repo\Competitive-Programming\Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7FC27E6-F74B-4606-967C-F49ED34365AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DBDA230-A0DE-444D-A9A2-40F64DCC4A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="146">
   <si>
     <t>Problem</t>
   </si>
@@ -544,6 +544,68 @@
 we fetch the index where it originally was and store "gold Medal" over
 there and similar conditions for the other medals and positions. This
 process continued till queue is not empty. </t>
+  </si>
+  <si>
+    <t>Array Partition</t>
+  </si>
+  <si>
+    <t>Sorting, Array, Vector</t>
+  </si>
+  <si>
+    <t>Choosing a pair where two elements 
+are adjacent to one another in sorted array.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Using sort function </t>
+  </si>
+  <si>
+    <t>obviously we want to maximise the sum. Therefore to maximise the 
+sum we are going to choose the adjacent pairs in the sorted array.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2) Using Bucket sort </t>
+  </si>
+  <si>
+    <t>Using a bucket of integers of 20001 where we are going to intialise them
+with 0 and then after that we are going to increment the count of every
+number in nums array. We keep two variable used and i for every used 
+of even polarity we include the number otherwise we exclude the number. Here for indexing of negative numbers we have done n + 10000
+so that every negative is also stored in the array.</t>
+  </si>
+  <si>
+    <t>Longest 
+Harmonious
+Subsequence</t>
+  </si>
+  <si>
+    <t>Sorting, Map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I inserted the elements in the map. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Using map and find </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I formed the map for the elements. Then we inserted the elements with
+their frequencies. After that for every element we find that whether the 
+next element exists or not. We have stored a maxLength variable which
+stores the length of max LHS and we update it if the frequency of the current element and the next element is greater than the maxLength </t>
+  </si>
+  <si>
+    <t>Maximum Product 
+of Three Numbers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sorting </t>
+  </si>
+  <si>
+    <t>Sort the array and return the maximum of 
+last three numbers or the minimum of 
+first two numbers and the last Number</t>
+  </si>
+  <si>
+    <t>1) Using the sort and max function.</t>
   </si>
 </sst>
 </file>
@@ -931,10 +993,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B34" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="B39" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47:H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1520,6 +1582,89 @@
       </c>
       <c r="H36" s="4" t="s">
         <v>129</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37">
+        <v>561</v>
+      </c>
+      <c r="C37" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E37" t="s">
+        <v>131</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G37" t="s">
+        <v>133</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="144" x14ac:dyDescent="0.3">
+      <c r="G38" t="s">
+        <v>135</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39">
+        <v>594</v>
+      </c>
+      <c r="C39" t="s">
+        <v>64</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E39" t="s">
+        <v>138</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G39" t="s">
+        <v>140</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40">
+        <v>628</v>
+      </c>
+      <c r="C40" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E40" t="s">
+        <v>143</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="G40" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/Learning/Competitive_Programming_Questions_Review.XLSX
+++ b/Learning/Competitive_Programming_Questions_Review.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\only one folder\CompetitiveProgramming Github Repo\Competitive-Programming\Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DBDA230-A0DE-444D-A9A2-40F64DCC4A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F1D92C-324A-4B72-97AB-9296B3376172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="162">
   <si>
     <t>Problem</t>
   </si>
@@ -606,6 +606,77 @@
   </si>
   <si>
     <t>1) Using the sort and max function.</t>
+  </si>
+  <si>
+    <t>Sum of the maximum three numbers or the other case would 
+be the product of the two biggest negative integers with the largest 
+number. The maximum of two will give us the answer.</t>
+  </si>
+  <si>
+    <t>Largest Number</t>
+  </si>
+  <si>
+    <t>Didn't got idea how to solve or how to 
+or how to proceed with the question.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Using Comparator </t>
+  </si>
+  <si>
+    <t>We convert all the numbers in the nums array into string and store them
+in the string container. After that we sort the strings on the basis of 
+comparator. Return a + b &gt; b + a. and then concatenate all the strings.
+If the result[0] is "0" then return 0 otherwise the result.</t>
+  </si>
+  <si>
+    <t>2) Using Lambda Expression instead of 
+Comparator.</t>
+  </si>
+  <si>
+    <t>So rather than declaring a comparator, we write an inline lambda 
+expression. [](const auto&amp;a, const &amp;b){ string s1 = to_string(a),s2= to+st
+ring(b); return s1 + s2 &gt; s2 + s1;}</t>
+  </si>
+  <si>
+    <t>Sort the List</t>
+  </si>
+  <si>
+    <t>Sorting, Merge Sort, Divide &amp;
+Order.</t>
+  </si>
+  <si>
+    <t>Stored all the elements of the Linked List
+into the vector sorted it and then converted
+the vector again back to Linked List.</t>
+  </si>
+  <si>
+    <t>1) Stored all the elements of the Linked List
+into the vector sorted it and then converted
+the vector again back to Linked List.</t>
+  </si>
+  <si>
+    <t>1) Using array and sort function and Extra Space</t>
+  </si>
+  <si>
+    <t>2) Using MergeSort without using extra space</t>
+  </si>
+  <si>
+    <t>This is similar to a merge Sort that we do in the case of array. But in this
+case for a Linked List. First we call the mergeSort function for the head
+Then we find the mid of the List using Hare and Tortoise Algorithm or 
+Floyd's Cycle Detection Algorithm. After finding the mid we call the 
+mergesort on the both the parts. After individually sorting them, We 
+have to merge them and store them in head. In merge we have to 
+check that if the first value is less than the second part value then make
+ a recursive call on merge(first-&gt;next, second) or else merge(first, 
+second-&gt;next). etc.. And As we are passing pointers by reference we don't need to return anything.</t>
+  </si>
+  <si>
+    <t>3Sum</t>
+  </si>
+  <si>
+    <t>Fixing a number and then implementing 
+the two sum approach.</t>
   </si>
 </sst>
 </file>
@@ -993,10 +1064,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B39" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47:H47"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1654,7 +1725,7 @@
       <c r="C40" t="s">
         <v>64</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="8" t="s">
         <v>142</v>
       </c>
       <c r="E40" t="s">
@@ -1665,6 +1736,100 @@
       </c>
       <c r="G40" t="s">
         <v>145</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A41" s="6">
+        <v>44829</v>
+      </c>
+      <c r="B41">
+        <v>179</v>
+      </c>
+      <c r="C41" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E41" t="s">
+        <v>66</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G41" t="s">
+        <v>149</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="G42" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43">
+        <v>148</v>
+      </c>
+      <c r="C43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="G43" t="s">
+        <v>157</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="F44" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G44" t="s">
+        <v>158</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>24</v>
+      </c>
+      <c r="B45">
+        <v>15</v>
+      </c>
+      <c r="C45" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" t="s">
+        <v>160</v>
+      </c>
+      <c r="E45" t="s">
+        <v>66</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/Learning/Competitive_Programming_Questions_Review.XLSX
+++ b/Learning/Competitive_Programming_Questions_Review.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\only one folder\CompetitiveProgramming Github Repo\Competitive-Programming\Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F1D92C-324A-4B72-97AB-9296B3376172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E298ADB4-C084-4766-B6DC-8CACE65B7147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="179">
   <si>
     <t>Problem</t>
   </si>
@@ -677,6 +677,79 @@
   <si>
     <t>Fixing a number and then implementing 
 the two sum approach.</t>
+  </si>
+  <si>
+    <t>Two Sum</t>
+  </si>
+  <si>
+    <t>1) Three nested for loops</t>
+  </si>
+  <si>
+    <t>Fix a number in the first for loop. Start searching for the next newtarget
+which is (target - nums[i]). For the second for loop fix a number nums[j],
+and if the third for loop start finding the for the number (target - nums[i]
+- nums[j]) and we want unique answers so store them in set and then 
+again insert them to the 2-d vector.</t>
+  </si>
+  <si>
+    <t>2) Fixing a Number and Using a two pointer 
+approach on the sorted array.</t>
+  </si>
+  <si>
+    <t>Fixing a number. Then finding the (-nums[i]) as the target. Make sure 
+to handle for the uniqueness. Set low and high as two pointers and start
+searching for nums[low] + nums[high] == (target), if target greater than
+sum increase low if smaller decrease high or else push the current trio
+and now as we want unique trios therefore we increase the lownumber
+till it becomes different from the previous one and similarly for the 
+higher number. And after that we come for the next fixed number and for that we check if it is similar to the previous number then keep on incrementing until you get the next higher number.</t>
+  </si>
+  <si>
+    <t>Sorting, Array, hash Table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I thought of storing the indexes correspond
+ing to the numbers in an ordered map 
+and after that going in the for loop. And 
+checking if (target - nums[i]) present in the 
+loop. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1) Use Hashmap </t>
+  </si>
+  <si>
+    <t>if the number is not already present store the index of the number In the
+hashmap. Now while checking check if(target - nums[i]) Is present in the
+hashmap or not. If present then return i and mp[nums[i]] as the ans in 
+the vector.</t>
+  </si>
+  <si>
+    <t>2) Using Vector and Sort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using 2d vector for storing the value and the index and then sorting it. As well as sorting the nums array. When we find the match or the indexes of low and high we basically return their indexes. </t>
+  </si>
+  <si>
+    <t>3) we can also do in O(n^2) time complexity.</t>
+  </si>
+  <si>
+    <t>Set Mismatch</t>
+  </si>
+  <si>
+    <t>I thought of using a map and finding the 
+totSum and perfSum with the duplicate 
+element and then subtracting (perfSum - 
+totSum) + duplicate will give the answer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Using bool array and maths </t>
+  </si>
+  <si>
+    <t>find the sum = (n * (n + 1))/2 and iterate in the nums array and subtract
+nums[i] from the sum. Using bool array find the duplicate number. Now for the missing number add the ans[0] and return the answer.</t>
+  </si>
+  <si>
+    <t>2) Using Unordered Map and sort and maths.</t>
   </si>
 </sst>
 </file>
@@ -732,7 +805,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -742,6 +815,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -759,7 +838,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -783,6 +862,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1064,10 +1144,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" topLeftCell="B48" workbookViewId="0">
+      <selection activeCell="H60" sqref="H57:H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1812,17 +1892,17 @@
         <v>159</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>24</v>
+    <row r="45" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A45" s="6">
+        <v>44830</v>
       </c>
       <c r="B45">
         <v>15</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="7" t="s">
         <v>160</v>
       </c>
       <c r="E45" t="s">
@@ -1830,6 +1910,93 @@
       </c>
       <c r="F45" s="4" t="s">
         <v>161</v>
+      </c>
+      <c r="G45" t="s">
+        <v>163</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="G46" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A47" s="6">
+        <v>44831</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>64</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E47" t="s">
+        <v>167</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="G47" t="s">
+        <v>169</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="G48" t="s">
+        <v>171</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G49" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>24</v>
+      </c>
+      <c r="B50">
+        <v>645</v>
+      </c>
+      <c r="C50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" t="s">
+        <v>174</v>
+      </c>
+      <c r="E50" t="s">
+        <v>66</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="G50" t="s">
+        <v>176</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="G51" t="s">
+        <v>178</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/Learning/Competitive_Programming_Questions_Review.XLSX
+++ b/Learning/Competitive_Programming_Questions_Review.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\only one folder\CompetitiveProgramming Github Repo\Competitive-Programming\Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E298ADB4-C084-4766-B6DC-8CACE65B7147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C44D7A-5B79-45C9-95F5-7CD34407A76F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="200">
   <si>
     <t>Problem</t>
   </si>
@@ -750,6 +750,92 @@
   </si>
   <si>
     <t>2) Using Unordered Map and sort and maths.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contest </t>
+  </si>
+  <si>
+    <t>Sort the  people</t>
+  </si>
+  <si>
+    <t>My intuition was correct Using a map and
+storing the names corresponding to the 
+heights and then the heights will be sorted 
+as it is an ordered map. Now iterate in 
+reverse manner and store the answer in 
+the array.</t>
+  </si>
+  <si>
+    <t>1) Using map</t>
+  </si>
+  <si>
+    <t>Same as Metacognition</t>
+  </si>
+  <si>
+    <t>Longest Subarray
+with maximum 
+Bitwise &amp;</t>
+  </si>
+  <si>
+    <t>Array</t>
+  </si>
+  <si>
+    <t>We basically need to find the largest Numb
+because that number will give us the max
+bitwise and because bitwise and will always
+answer less than the maximum. Therefore
+find the freq of the maximum number.</t>
+  </si>
+  <si>
+    <t>1) Using four variables maxFreq, MaxElem, current
+and freq</t>
+  </si>
+  <si>
+    <t>Some conditions pertaining to it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Can use the map as well. </t>
+  </si>
+  <si>
+    <t>Use ordered map and return the frequency of it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medium </t>
+  </si>
+  <si>
+    <t>Find all good  
+Indices</t>
+  </si>
+  <si>
+    <t>4Sum</t>
+  </si>
+  <si>
+    <t>Two Pointers, Sorting, Array</t>
+  </si>
+  <si>
+    <t>It is similar to 3Sum but here we have to 
+find unique quadruplets instead of triplets.
+So I used the same approach as the 3Sum 
+but added extra conditions for pruning</t>
+  </si>
+  <si>
+    <t>So In the Iterative Approach, We would require 2 extra loops for fixing
+the 1st and the 2nd number and then using the two pointer approach
+we would find the 3rd and 4th number. In this cases we would also 
+handle the uniqueness for the answers and using conditions will only 
+find the possibilities where really we would achieve the favourable 
+answers</t>
+  </si>
+  <si>
+    <t>1) Using Two pointer Appraoch and some extra
+conditions for pruning.(Iterative).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2) </t>
+  </si>
+  <si>
+    <t>Recursive Approach and the Generalisation
+Idea.</t>
   </si>
 </sst>
 </file>
@@ -1144,10 +1230,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B48" workbookViewId="0">
-      <selection activeCell="H60" sqref="H57:H60"/>
+    <sheetView tabSelected="1" topLeftCell="B51" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1975,7 +2061,7 @@
       <c r="C50" t="s">
         <v>13</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="7" t="s">
         <v>174</v>
       </c>
       <c r="E50" t="s">
@@ -1997,6 +2083,114 @@
       </c>
       <c r="H51" s="4" t="s">
         <v>175</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>179</v>
+      </c>
+      <c r="B52">
+        <v>2418</v>
+      </c>
+      <c r="C52" t="s">
+        <v>64</v>
+      </c>
+      <c r="D52" t="s">
+        <v>180</v>
+      </c>
+      <c r="E52" t="s">
+        <v>138</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="G52" t="s">
+        <v>182</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B53">
+        <v>2419</v>
+      </c>
+      <c r="C53" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E53" t="s">
+        <v>185</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F54" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G54" t="s">
+        <v>189</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B55">
+        <v>2420</v>
+      </c>
+      <c r="C55" t="s">
+        <v>191</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="E55" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A57" s="6">
+        <v>44832</v>
+      </c>
+      <c r="B57">
+        <v>18</v>
+      </c>
+      <c r="C57" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E57" t="s">
+        <v>194</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F58" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="G58" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/Learning/Competitive_Programming_Questions_Review.XLSX
+++ b/Learning/Competitive_Programming_Questions_Review.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\only one folder\CompetitiveProgramming Github Repo\Competitive-Programming\Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C44D7A-5B79-45C9-95F5-7CD34407A76F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3438976-4354-41FC-B530-E62C6E6F53D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="210">
   <si>
     <t>Problem</t>
   </si>
@@ -831,11 +831,59 @@
 conditions for pruning.(Iterative).</t>
   </si>
   <si>
-    <t xml:space="preserve">2) </t>
-  </si>
-  <si>
     <t>Recursive Approach and the Generalisation
 Idea.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generalisation : </t>
+  </si>
+  <si>
+    <t>here we can be asked about the 5sum, 6Sum,7Sum the approach would
+be same. We have nested loops over twoSum implementation. The 
+two sum implementation can be done by two pointer approach or by
+using HashSet : One pass Hash Table. Above it would be k - 2 nested loops. Here we can use recursion for these k - 2 nested loops and when
+k == 2 we can call the TwoSum implementation.</t>
+  </si>
+  <si>
+    <t>Two Sum Implemenatation</t>
+  </si>
+  <si>
+    <t>Done in the sorted array using low and high pointers and handled 
+accordingly (may have some extra conditions in cases of duplicates).</t>
+  </si>
+  <si>
+    <t>One Pass : hash Table Implementations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For 3 Sum we don't need to sort the array if we are using this appraoch
+but as the k value increases this method is not useful when applied on 
+an unsorted array. So sorting is required if using above k &gt; 3. </t>
+  </si>
+  <si>
+    <t>Recursive Appraoch</t>
+  </si>
+  <si>
+    <t>Two - Pointer Implementation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So we sort the array first. Then in fourSum we call the kSum function
+with parameters k, target, nums and start. And return the result. This 
+happens in the main function. After that the control passes to the kSum 
+function. Here we check a few conditions first. 1) Have we ran out of
+the numbers(start == nums.size()) 2) smaller number greater than the 
+average value. or 3) largest value less than that of average value. In 
+either of the cases we return the result because in either cases we 
+wouldn't be able to reach the target. Remember target may cross the integer range. So make sure to declare it as long long. After the checking
+we know that we may get an answer. If(k == 2) then we call the twoSum function. It will return the result. Now we will iterate from start till end 
+and find the possible answers for those starting positions and make recursion call for i + 1 and k - 1 as this number has been chosen now and insert those answers in the res array. While checking we make sure we are not taking the duplicate elements. We push all the answers in to res array. and return them. In the twoSum function. we make a res array again and set two pointer low and high and then if sum == target we 
+push those pairs into the res array. And make sure to add extra conditions for duplicates checking.
+</t>
+  </si>
+  <si>
+    <t>Hash - Set Implementation</t>
+  </si>
+  <si>
+    <t>Recursive Approach</t>
   </si>
 </sst>
 </file>
@@ -1230,10 +1278,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B51" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+    <sheetView tabSelected="1" topLeftCell="B62" workbookViewId="0">
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2185,12 +2233,50 @@
         <v>196</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="F58" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="G58" t="s">
         <v>199</v>
       </c>
-      <c r="G58" t="s">
-        <v>198</v>
+      <c r="H58" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G59" t="s">
+        <v>201</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="G60" t="s">
+        <v>203</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="F61" t="s">
+        <v>206</v>
+      </c>
+      <c r="G61" t="s">
+        <v>205</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F62" t="s">
+        <v>208</v>
+      </c>
+      <c r="G62" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/Learning/Competitive_Programming_Questions_Review.XLSX
+++ b/Learning/Competitive_Programming_Questions_Review.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\only one folder\CompetitiveProgramming Github Repo\Competitive-Programming\Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3438976-4354-41FC-B530-E62C6E6F53D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4B691B-FBA5-4922-981C-54497B462B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="211">
   <si>
     <t>Problem</t>
   </si>
@@ -884,6 +884,10 @@
   </si>
   <si>
     <t>Recursive Approach</t>
+  </si>
+  <si>
+    <t>Everything is going to be same except the twoSum Implementation - 
+where we are going to use the One pass Hash Table Approach.</t>
   </si>
 </sst>
 </file>
@@ -1280,8 +1284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B62" workbookViewId="0">
-      <selection activeCell="G63" sqref="G63"/>
+    <sheetView tabSelected="1" topLeftCell="B61" workbookViewId="0">
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2271,12 +2275,15 @@
         <v>207</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="F62" t="s">
         <v>208</v>
       </c>
       <c r="G62" t="s">
         <v>209</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/Learning/Competitive_Programming_Questions_Review.XLSX
+++ b/Learning/Competitive_Programming_Questions_Review.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\only one folder\CompetitiveProgramming Github Repo\Competitive-Programming\Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4B691B-FBA5-4922-981C-54497B462B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB2978C-95A3-4024-895E-D434A2CC150C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="218">
   <si>
     <t>Problem</t>
   </si>
@@ -888,6 +888,33 @@
   <si>
     <t>Everything is going to be same except the twoSum Implementation - 
 where we are going to use the One pass Hash Table Approach.</t>
+  </si>
+  <si>
+    <t>Two Sum - II Input
+array is Sorted</t>
+  </si>
+  <si>
+    <t>Sorting Two Pointers HashSet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At the first sight I knew that as array is 
+sorted and we have to find two indices 
+which result to some sum we have to use 
+two pointer approach </t>
+  </si>
+  <si>
+    <t>1) Two Pointer Appraoch</t>
+  </si>
+  <si>
+    <t>Setting low and high pointers and finding the first indices which add upto
+to give the target and return the indices + 1 in the vector.</t>
+  </si>
+  <si>
+    <t>4Sum II</t>
+  </si>
+  <si>
+    <t>Sorting, Two Pointers, HashSet,
+Recursion.</t>
   </si>
 </sst>
 </file>
@@ -1282,10 +1309,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H62"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B61" workbookViewId="0">
-      <selection activeCell="G61" sqref="G61"/>
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2147,7 +2174,7 @@
       <c r="C52" t="s">
         <v>64</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="7" t="s">
         <v>180</v>
       </c>
       <c r="E52" t="s">
@@ -2170,7 +2197,7 @@
       <c r="C53" t="s">
         <v>13</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D53" s="8" t="s">
         <v>184</v>
       </c>
       <c r="E53" t="s">
@@ -2204,7 +2231,7 @@
       <c r="C55" t="s">
         <v>191</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" s="8" t="s">
         <v>192</v>
       </c>
       <c r="E55" t="s">
@@ -2221,7 +2248,7 @@
       <c r="C57" t="s">
         <v>13</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D57" s="8" t="s">
         <v>193</v>
       </c>
       <c r="E57" t="s">
@@ -2284,6 +2311,46 @@
       </c>
       <c r="H62" s="4" t="s">
         <v>210</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>24</v>
+      </c>
+      <c r="B63">
+        <v>167</v>
+      </c>
+      <c r="C63" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="E63" t="s">
+        <v>212</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="G63" t="s">
+        <v>214</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B64">
+        <v>154</v>
+      </c>
+      <c r="C64" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" t="s">
+        <v>216</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>

--- a/Learning/Competitive_Programming_Questions_Review.XLSX
+++ b/Learning/Competitive_Programming_Questions_Review.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\only one folder\CompetitiveProgramming Github Repo\Competitive-Programming\Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB2978C-95A3-4024-895E-D434A2CC150C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB32686A-FA7E-48E7-9A5B-A37D36843255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="221">
   <si>
     <t>Problem</t>
   </si>
@@ -915,6 +915,23 @@
   <si>
     <t>Sorting, Two Pointers, HashSet,
 Recursion.</t>
+  </si>
+  <si>
+    <t>I thought of choosing fixing 2 from 1st two
+arrays and then using sort of two pointer
+approach but wasn't able to apply</t>
+  </si>
+  <si>
+    <t>1) Using Map and Pair sum</t>
+  </si>
+  <si>
+    <t>We stored the pair sum of one element from nums1 and the other from
+nums2 in the map with their corresponding frequencies. If the pair sum 
+encountered we incremented the count. Now We started traversing the 
+nums3 and nums4 array now and for every (it3 + it4) we saw that 
+whether their negative summation exists in map or not. If yes then 
+increment the count by the frequency. At the end you will have the
+count of the tuples. Return the count.</t>
   </si>
 </sst>
 </file>
@@ -1311,8 +1328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B61" workbookViewId="0">
-      <selection activeCell="F64" sqref="F64"/>
+    <sheetView tabSelected="1" topLeftCell="B64" workbookViewId="0">
+      <selection activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2339,18 +2356,27 @@
         <v>215</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" ht="144" x14ac:dyDescent="0.3">
       <c r="B64">
         <v>154</v>
       </c>
       <c r="C64" t="s">
         <v>13</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="7" t="s">
         <v>216</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>217</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="G64" t="s">
+        <v>219</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/Learning/Competitive_Programming_Questions_Review.XLSX
+++ b/Learning/Competitive_Programming_Questions_Review.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\only one folder\CompetitiveProgramming Github Repo\Competitive-Programming\Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB32686A-FA7E-48E7-9A5B-A37D36843255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4453A2-A088-4685-AE88-456E4AA83F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="226">
   <si>
     <t>Problem</t>
   </si>
@@ -932,6 +932,27 @@
 whether their negative summation exists in map or not. If yes then 
 increment the count by the frequency. At the end you will have the
 count of the tuples. Return the count.</t>
+  </si>
+  <si>
+    <t>Number of 
+Arithmetic Triplets</t>
+  </si>
+  <si>
+    <t>Brute Force, Sorting, two pointer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I didn't got the idea how to solve the ques.
+Damnn I didn't see the constraints it was 
+easily doable through a brute force 
+approach. </t>
+  </si>
+  <si>
+    <t>1) Using Brute Force Approach</t>
+  </si>
+  <si>
+    <t>1) Using Brute Force Approach, and 3 for loops and iterating and 
+checking the conditions and incrementing the count according to the 
+conditions.</t>
   </si>
 </sst>
 </file>
@@ -1326,10 +1347,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H64"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B64" workbookViewId="0">
-      <selection activeCell="H65" sqref="H65"/>
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2377,6 +2398,32 @@
       </c>
       <c r="H64" s="4" t="s">
         <v>220</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A65" s="6">
+        <v>44833</v>
+      </c>
+      <c r="B65">
+        <v>2367</v>
+      </c>
+      <c r="C65" t="s">
+        <v>64</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="E65" t="s">
+        <v>222</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="G65" t="s">
+        <v>224</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/Learning/Competitive_Programming_Questions_Review.XLSX
+++ b/Learning/Competitive_Programming_Questions_Review.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\only one folder\CompetitiveProgramming Github Repo\Competitive-Programming\Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4453A2-A088-4685-AE88-456E4AA83F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA90D331-B0F3-469D-BBE3-51DF3330666E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="244">
   <si>
     <t>Problem</t>
   </si>
@@ -954,12 +954,119 @@
 checking the conditions and incrementing the count according to the 
 conditions.</t>
   </si>
+  <si>
+    <t>Group Anagrams</t>
+  </si>
+  <si>
+    <t>Unordered Map, Sorting</t>
+  </si>
+  <si>
+    <t>I wasn't able to come up with a approach
+but still I tried and I got the idea. Explained
+in Analysis</t>
+  </si>
+  <si>
+    <t>1) Using Unordered map</t>
+  </si>
+  <si>
+    <t>In array of String we had to group the anagrams together. So we 
+created a map which mapped the original string to all the anagrams in 
+the string array. For that at first we sorted our current string and then 
+added it to the mapped vector&lt;string&gt;. All the vector&lt;string&gt; were then
+added to the res array.</t>
+  </si>
+  <si>
+    <t>Merge Intervals</t>
+  </si>
+  <si>
+    <t>I knew that we had to sort the intervals
+on the basis of their starting time. And then
+after that find the overlapping intervals</t>
+  </si>
+  <si>
+    <t>1) Using Sorting</t>
+  </si>
+  <si>
+    <t>For Overlapping intervals we checked if the current ending was greater 
+than or equal to the next interval's starting point. If yes, then we 
+consider both of them in the same interval and update the ending time 
+by max of current interval ending time or the prev intervals ending time.
+If they don't overlap create a new interval.</t>
+  </si>
+  <si>
+    <t>Find Right Interval</t>
+  </si>
+  <si>
+    <t>Sorting, Brute Force, Map</t>
+  </si>
+  <si>
+    <t>Using a map to store the indices was a
+correct decision. But instead of storing the
+indices of the original interval we were 
+stated that we had unique starting 
+positions so we should have just created a
+vector&lt;pair&lt;int, int&gt;&gt; and implemented 
+a Binary Search Idea or map&lt;int, int&gt; and 
+used map and followed on the process.</t>
+  </si>
+  <si>
+    <t>First Create the vector&lt;pair&lt;int, int&gt;&gt; ans. Then sorted the val vector.
+After that I iterated through the intervals and searched for the minimum
+startj for the intervals end using Binary Search and simultaneously added
+in the ans vector.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1) Using </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Binary Search</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and Sorting the 
+vector&lt;pair&lt;int,int&gt;&gt; which represented the 
+unique starting positions and their corresponding
+indexes in the original array.</t>
+    </r>
+  </si>
+  <si>
+    <t>2) Using lower_bound and map</t>
+  </si>
+  <si>
+    <t>Here we create a map instead of vector to store starting positions and 
+indices. And after that we iterate through the intervals and find the 
+lower bound for their ending time. If it comes out be the mp.end() then 
+we didn't find out the answer and therefore push -1 or else the corres
+ponding index.</t>
+  </si>
+  <si>
+    <t>Non-Overlapping
+Intervals</t>
+  </si>
+  <si>
+    <t>Remove Covered
+Intervals</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1003,6 +1110,13 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1347,10 +1461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H65"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B64" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2426,6 +2540,120 @@
         <v>225</v>
       </c>
     </row>
+    <row r="66" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>24</v>
+      </c>
+      <c r="B66">
+        <v>49</v>
+      </c>
+      <c r="C66" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="E66" t="s">
+        <v>227</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="G66" t="s">
+        <v>229</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>24</v>
+      </c>
+      <c r="B67">
+        <v>56</v>
+      </c>
+      <c r="C67" t="s">
+        <v>191</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="E67" t="s">
+        <v>66</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="G67" t="s">
+        <v>233</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>24</v>
+      </c>
+      <c r="B68">
+        <v>436</v>
+      </c>
+      <c r="C68" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E68" t="s">
+        <v>236</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="G69" t="s">
+        <v>240</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>24</v>
+      </c>
+      <c r="B70">
+        <v>435</v>
+      </c>
+      <c r="C70" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>24</v>
+      </c>
+      <c r="B71">
+        <v>1288</v>
+      </c>
+      <c r="C71" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>243</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{865FEB98-CFD3-4DC9-B1AC-EB47AE0D16C2}"/>
@@ -2435,6 +2663,7 @@
     <hyperlink ref="B14" r:id="rId5" display="639" xr:uid="{3625D7CD-9563-492D-A6B8-DCE33BFAC60D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 

--- a/Learning/Competitive_Programming_Questions_Review.XLSX
+++ b/Learning/Competitive_Programming_Questions_Review.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\only one folder\CompetitiveProgramming Github Repo\Competitive-Programming\Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA90D331-B0F3-469D-BBE3-51DF3330666E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80ADF01-8FA0-4CBE-9E45-591161C243D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="260">
   <si>
     <t>Problem</t>
   </si>
@@ -1060,6 +1060,79 @@
   <si>
     <t>Remove Covered
 Intervals</t>
+  </si>
+  <si>
+    <t>Range Sum of BST</t>
+  </si>
+  <si>
+    <t>Binary Search Tree, DFS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I used the Recursive DFS approach. It gave
+me the correct answer. </t>
+  </si>
+  <si>
+    <t>1) Recursive DFS Approach</t>
+  </si>
+  <si>
+    <t>If root is null return 0. Now you have to accumulate the sum of left 
+Subtree and right Subtree. For that if node-&gt;val is between low and 
+high call the right as well as the left Subtree. If node-&gt;val is greater high
+call the left Subtree only. If low &gt; node-&gt;val call the recursion for right
+Subtree only. At the end return the summation of answers of left Subtree and right Subtree and node-&gt;val.</t>
+  </si>
+  <si>
+    <t>2) Iterative Approach Using Stack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We create a stack of TreeNode pointers and push the root in it. Now 
+we check the root is in the rangeSum or not. If yes then add it to the 
+rangeSum. Now check for the left Subtree. For that check if node-&gt;val 
+is greater than low if yes then add the left node as it may also contain 
+some numbers in the range. Similarly for the right Subtree, Here we 
+check if node-&gt;val &lt; right, if yes then add the right node if it exists. 
+Continue the process till stack is empty and at the end return the 
+rangeSum. </t>
+  </si>
+  <si>
+    <t>Increasing Order 
+Search Tree</t>
+  </si>
+  <si>
+    <t>Stack, Binary Search Tree, DFS</t>
+  </si>
+  <si>
+    <t>I was getting error because I already
+declared my curr TreeNode pointer but 
+I didn't intialise it with ans. Instead I was 
+redeclaring it. Which was giving a runtime 
+error.</t>
+  </si>
+  <si>
+    <t>1) Inorder Traversal with relinking</t>
+  </si>
+  <si>
+    <t>Used DFS approach we went to each and every node in in - order fashion. 
+We know that inorder traversal gives us a non-decreasing order. Now 
+Now while Reaching the root nodes after leaf node we are creating 
+another bst where only right node is present. Using the values of the 
+previous tree. In this way we construct the tree.</t>
+  </si>
+  <si>
+    <t>2) Using lnorder Traversal while storing nodes
+in array.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We send a vector&lt;int&gt; nums during inorder traversal and store all the 
+numbers in inorder fashion. After that, we construct a tree from it. </t>
+  </si>
+  <si>
+    <t>3) While Relinking we don't need extra space but
+I was not able to do it.</t>
+  </si>
+  <si>
+    <t>Search in a Binary
+Search Tree</t>
   </si>
 </sst>
 </file>
@@ -1461,10 +1534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H71"/>
+  <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2652,6 +2725,93 @@
       </c>
       <c r="D71" s="4" t="s">
         <v>243</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>24</v>
+      </c>
+      <c r="B72">
+        <v>938</v>
+      </c>
+      <c r="C72" t="s">
+        <v>64</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="E72" t="s">
+        <v>245</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="G72" t="s">
+        <v>247</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="G73" t="s">
+        <v>249</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>24</v>
+      </c>
+      <c r="B74">
+        <v>897</v>
+      </c>
+      <c r="C74" t="s">
+        <v>64</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="E74" t="s">
+        <v>252</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="G74" t="s">
+        <v>254</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G75" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G76" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A77" s="6">
+        <v>44834</v>
+      </c>
+      <c r="B77">
+        <v>700</v>
+      </c>
+      <c r="C77" t="s">
+        <v>64</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>

--- a/Learning/Competitive_Programming_Questions_Review.XLSX
+++ b/Learning/Competitive_Programming_Questions_Review.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\only one folder\CompetitiveProgramming Github Repo\Competitive-Programming\Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80ADF01-8FA0-4CBE-9E45-591161C243D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672D9EB6-499C-4FED-87D2-C3720A832D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="271">
   <si>
     <t>Problem</t>
   </si>
@@ -1133,6 +1133,66 @@
   <si>
     <t>Search in a Binary
 Search Tree</t>
+  </si>
+  <si>
+    <t>Recursion, DFS, Iterative, Stack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generally I start by doing recursive 
+approach for tree questions. As they are
+basically made up of recursive subtrees. </t>
+  </si>
+  <si>
+    <t>If root is null return null. Here we have to search the root where val ==
+root-&gt;val. As BST has a certain way of arranging it's elements. Now if
+root-&gt;val &gt; val. Then according to bst's property then val may be 
+present only in the left Subtree. And if root-&gt;val &lt; val, then it may be 
+only present in right subtree. and if they match, then return the root of
+of the Subtree.</t>
+  </si>
+  <si>
+    <t>1) Iterative DFS Approach</t>
+  </si>
+  <si>
+    <t>Initialize the TreeNode* ans with NULL indicating we haven't got 
+our intended root till now. We apply a similar approach here. But 
+instead of using an implicit stack we make our own stack and operate on it. We store the root at the first. Now till the stack is empty we go 
+in the stack and extract the top. If root-&gt;val == val, ans = root, break out
+or else if root-&gt;val &lt; val, insert root-&gt;right if it exists. or else if 
+root-&gt;val &gt; val, insert root-&gt;left if it exists.  At the end, return the ans.</t>
+  </si>
+  <si>
+    <t>Convert Sorted
+Array to Binary
+Search Tree</t>
+  </si>
+  <si>
+    <t>Divide and Conquer, Array, BST</t>
+  </si>
+  <si>
+    <t>As we have to create a height Balanced 
+Tree. First thing was sure that the differe.
+Of the left subtrees and right subtrees must
+not be greater than 1. Therefore how to 
+achieve this. For that it was obvious we 
+have to choose root for every subtree in 
+such a way that it is always in the middle
+of the array(partition). So we always 
+choose the middle element and then 
+recursively passed the left part to the left
+subtree and the right part to right subtree. These parts always differed by only one element at maximum.</t>
+  </si>
+  <si>
+    <t>1) Divide and Conquer Approach</t>
+  </si>
+  <si>
+    <t>We divide our array into two halves for that we first find out the mid.
+Create the root using the mid's value. And then pass the left to be generated and the right array to be generated. As the number of nodes
+are same or just differ by 1 we will have a height balanced binary tree.</t>
+  </si>
+  <si>
+    <t>Find Mode In 
+Binary Search Tree</t>
   </si>
 </sst>
 </file>
@@ -1534,10 +1594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H77"/>
+  <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2800,7 +2860,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A77" s="6">
         <v>44834</v>
       </c>
@@ -2810,8 +2870,68 @@
       <c r="C77" t="s">
         <v>64</v>
       </c>
-      <c r="D77" s="4" t="s">
+      <c r="D77" s="8" t="s">
         <v>259</v>
+      </c>
+      <c r="E77" t="s">
+        <v>260</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="G77" t="s">
+        <v>247</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="G78" t="s">
+        <v>263</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>94</v>
+      </c>
+      <c r="B79">
+        <v>108</v>
+      </c>
+      <c r="C79" t="s">
+        <v>64</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="E79" t="s">
+        <v>266</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G79" t="s">
+        <v>268</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>24</v>
+      </c>
+      <c r="B80">
+        <v>501</v>
+      </c>
+      <c r="C80" t="s">
+        <v>64</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>270</v>
       </c>
     </row>
   </sheetData>

--- a/Learning/Competitive_Programming_Questions_Review.XLSX
+++ b/Learning/Competitive_Programming_Questions_Review.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\only one folder\CompetitiveProgramming Github Repo\Competitive-Programming\Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672D9EB6-499C-4FED-87D2-C3720A832D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B574D1ED-F432-4EE5-B708-6D94F5D0EFDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="277">
   <si>
     <t>Problem</t>
   </si>
@@ -1193,6 +1193,28 @@
   <si>
     <t>Find Mode In 
 Binary Search Tree</t>
+  </si>
+  <si>
+    <t>Depth First Search, BST, Inorder</t>
+  </si>
+  <si>
+    <t>This question is a good example will help 
+you when we have to handle the 
+duplicates on either side.</t>
+  </si>
+  <si>
+    <t>1) Using nums Vector and Inorder Traversal</t>
+  </si>
+  <si>
+    <t>In private we have declared the vector&lt;int&gt; nums. Now we do inorder 
+traversal on the BST. The nums is arranged in non-decreasing order. Now using maxFreq, freq, prev we find the mode(s) of the BST. Here we have different conditions like if freq == maxFreq then we add the current element in the nums vector. and if freq of current element &gt; maxFreq. Then we clear the ans vector and then we add the curr element as it is now the most occuring element.</t>
+  </si>
+  <si>
+    <t>2) Using Inorder Traversal and few parameters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">here during our inorder traversal itself we are passing our ans vector as
+argument. So we are filling our ans vector along the way. Along with it we have maxFreq, freq, and prev variable. In Inorder we first call the left Subtree. There we have conditions.If the prev != root-&gt;val then freq = 1 for the curr element and if prev == root-&gt;val, then increment the freq++ for the current element. Now if freq &gt; maxFreq then we erase the entire vector and then add only the current element. and if freq == maxFreq, then add the current element to the existing elements. then we call the right Subtree and now our array contains the answer. return the answer vector. </t>
   </si>
 </sst>
 </file>
@@ -1594,10 +1616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H80"/>
+  <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="E80" sqref="E80"/>
+    <sheetView tabSelected="1" topLeftCell="B80" workbookViewId="0">
+      <selection activeCell="H82" sqref="H82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2904,7 +2926,7 @@
       <c r="C79" t="s">
         <v>64</v>
       </c>
-      <c r="D79" s="4" t="s">
+      <c r="D79" s="8" t="s">
         <v>265</v>
       </c>
       <c r="E79" t="s">
@@ -2920,7 +2942,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>24</v>
       </c>
@@ -2930,8 +2952,28 @@
       <c r="C80" t="s">
         <v>64</v>
       </c>
-      <c r="D80" s="4" t="s">
+      <c r="D80" s="8" t="s">
         <v>270</v>
+      </c>
+      <c r="E80" t="s">
+        <v>271</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="G80" t="s">
+        <v>273</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="81" spans="7:8" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="G81" t="s">
+        <v>275</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>276</v>
       </c>
     </row>
   </sheetData>

--- a/Learning/Competitive_Programming_Questions_Review.XLSX
+++ b/Learning/Competitive_Programming_Questions_Review.XLSX
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\only one folder\CompetitiveProgramming Github Repo\Competitive-Programming\Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B574D1ED-F432-4EE5-B708-6D94F5D0EFDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1DA02F5-663B-420D-A53F-ED9885967806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="296">
   <si>
     <t>Problem</t>
   </si>
@@ -1215,6 +1215,65 @@
   <si>
     <t xml:space="preserve">here during our inorder traversal itself we are passing our ans vector as
 argument. So we are filling our ans vector along the way. Along with it we have maxFreq, freq, and prev variable. In Inorder we first call the left Subtree. There we have conditions.If the prev != root-&gt;val then freq = 1 for the curr element and if prev == root-&gt;val, then increment the freq++ for the current element. Now if freq &gt; maxFreq then we erase the entire vector and then add only the current element. and if freq == maxFreq, then add the current element to the existing elements. then we call the right Subtree and now our array contains the answer. return the answer vector. </t>
+  </si>
+  <si>
+    <t>Minimum Absolute
+Difference in BST</t>
+  </si>
+  <si>
+    <t>Deepest Leaves Sum</t>
+  </si>
+  <si>
+    <t>Depth First Search, Breadth First Search and Binary Search Tree</t>
+  </si>
+  <si>
+    <t>I thought that this question can be done 
+easily using height and dfs. Where as we reach the deepest level we add the val to the sum.</t>
+  </si>
+  <si>
+    <t>1) Using Height and DFS</t>
+  </si>
+  <si>
+    <t>In the main function, I found the height of the tree using the height function mady by me. After that I declared the sum variable initialised to 0. Then I passed the height, root, and sum( as a reference variable) so that the value gets updated automatically. If we reach the height == 1. It is the leaf node at the deepest level. Then we add the sum of the leaf node and return and if it is not the deepest level then we call the right and left subtrees of that node.</t>
+  </si>
+  <si>
+    <t>2) Using BFS</t>
+  </si>
+  <si>
+    <t>Using usual bfs approach, we update the value of the sum for every level and whenever we come for the new level we again update the sum to 0. This way when we are the last level we don't enter the while loop. And the sum variable is containing the sum of the deepest level</t>
+  </si>
+  <si>
+    <t>3) Using Only DFS</t>
+  </si>
+  <si>
+    <t>In the previous dfs, we knew the deepest level, but in this case without the height of the tree we don't know the deepest level. So in this case as we reach the root node we have to check whether we can include this node for the deepest level. This time we need to check the  depth at the current instant(depth), the deepest level till now(deepest), and the sum variable containing the sum of nodes of the deepest level till now. So in the helper function we pass depth, root, (sum and deepest) as reference as they are being updated independently. Now how to check for in the helper function. If the root is NULL return. But if the encountered node is the root node then we check if(depth == deepest) which means that the current node is at the deepest level so we add the node's value to the sum. If(depth &gt; deepest) then we know that this node is now the deepest node. Therefore sum is now root-&gt;val and deepest = depth. other wise if(depth &lt; deepest) it doesn't add to the sum therefore we don't write that case. if they are not the root node then we call the left and right subtree to it.</t>
+  </si>
+  <si>
+    <t>Count Nodes Equal to Average of Subtree</t>
+  </si>
+  <si>
+    <t>Trees, Binary Trees, BFS, DFS</t>
+  </si>
+  <si>
+    <t>At first I got the meaning of the question wrong. I thought we have to calculate the sum of all the nodes and the count of the nodes and then find the average and then count the no. of nodes in the tree which have a value equal to the average. But the question demanded that for every node, find the sum of it's subtrees and the count of nodes in them and then check if the average == node-&gt;val. If yes count+= 1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Using DFS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I declared three variables in the main function, sum -&gt; denoting the sum of the values in the subtree, count-&gt; count of nodes in the subtree, and ans-&gt; those nodes whose average(sum of nodes of  subtree/ count of nodes of subtree) == node-&gt;val. Now we call the helper function with these arguments. We declare four variables there, count1 , count2, sum1, sum2 which indicates the count of nodes and sum of nodes in the right and left subtree. Then after that we make recursive calls to update the values passed to left and right subtree. After that we fill the values for the current node. We update it's sum, count, and check if (node-&gt;val  == average) if yes increment the value of the ans or else return. </t>
+  </si>
+  <si>
+    <t>2) Using DFS and pair&lt;int, int&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Here rather than updating sum and count in the previous case, we return the pair&lt;int, int&gt;. pair first - indicates sum of the subtree, and second indicates the count of nodes in the subtree. Now similarly we call the left and right subtrees first. Before that we check the root==NULL condition. Now we use the pairs returned by the left and right subtree to update pair for the current node as well as check if the average == node-&gt;val and increment the ans by 1. Here we pass ans by reference and updated it when the condition satisfies.</t>
+  </si>
+  <si>
+    <t>Efficient.</t>
+  </si>
+  <si>
+    <t>Sum of Nodes with Even-Valued GrandParents</t>
   </si>
 </sst>
 </file>
@@ -1277,7 +1336,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1296,6 +1355,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1310,7 +1375,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -1335,6 +1400,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1616,10 +1684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H81"/>
+  <dimension ref="A1:H89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B80" workbookViewId="0">
-      <selection activeCell="H82" sqref="H82"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="G98" sqref="G98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2968,12 +3036,117 @@
         <v>274</v>
       </c>
     </row>
-    <row r="81" spans="7:8" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
       <c r="G81" t="s">
         <v>275</v>
       </c>
       <c r="H81" s="4" t="s">
         <v>276</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>24</v>
+      </c>
+      <c r="B82">
+        <v>530</v>
+      </c>
+      <c r="C82" t="s">
+        <v>64</v>
+      </c>
+      <c r="D82" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="E82" s="4"/>
+    </row>
+    <row r="84" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A84" s="6">
+        <v>44835</v>
+      </c>
+      <c r="B84">
+        <v>1302</v>
+      </c>
+      <c r="C84" t="s">
+        <v>13</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="G84" t="s">
+        <v>281</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="G85" t="s">
+        <v>283</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="F86" t="s">
+        <v>294</v>
+      </c>
+      <c r="G86" t="s">
+        <v>285</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>24</v>
+      </c>
+      <c r="B87">
+        <v>2265</v>
+      </c>
+      <c r="C87" t="s">
+        <v>13</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="E87" t="s">
+        <v>288</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="G87" t="s">
+        <v>290</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="G88" t="s">
+        <v>292</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>24</v>
+      </c>
+      <c r="B89">
+        <v>1315</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>295</v>
       </c>
     </row>
   </sheetData>

--- a/Learning/Competitive_Programming_Questions_Review.XLSX
+++ b/Learning/Competitive_Programming_Questions_Review.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\only one folder\CompetitiveProgramming Github Repo\Competitive-Programming\Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1DA02F5-663B-420D-A53F-ED9885967806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F21822BD-0C07-41F2-AFA0-6BC8E8813916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="302">
   <si>
     <t>Problem</t>
   </si>
@@ -1274,6 +1274,24 @@
   </si>
   <si>
     <t>Sum of Nodes with Even-Valued GrandParents</t>
+  </si>
+  <si>
+    <t>Binary Tree, Tree, DFS, BFS</t>
+  </si>
+  <si>
+    <t>I was not able to do this question. The way was simpler than I thought. Whenever you encounter any node with even value then add the sum of grandchild of it to the sum.</t>
+  </si>
+  <si>
+    <t>1) DFS</t>
+  </si>
+  <si>
+    <t>A simple approach we give the sum as a reference variable to helper function and after that whenever we encounter the node with even val we can add the sum of it's grandchildren if they exist. After that we give recursive call to the left and the right subtrees.</t>
+  </si>
+  <si>
+    <t>2) BFS</t>
+  </si>
+  <si>
+    <t>Similarly in the bfs approach if we encounter a even val node we check if the node has grandchildren or not and if they exist we add it to the sum. And return at the end.</t>
   </si>
 </sst>
 </file>
@@ -1400,7 +1418,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1684,10 +1702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H89"/>
+  <dimension ref="A1:H90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="G98" sqref="G98"/>
+      <selection activeCell="G97" sqref="G97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3138,7 +3156,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>24</v>
       </c>
@@ -3146,7 +3164,30 @@
         <v>1315</v>
       </c>
       <c r="C89" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D89" s="4" t="s">
         <v>295</v>
+      </c>
+      <c r="E89" t="s">
+        <v>296</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="G90" t="s">
+        <v>300</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>301</v>
       </c>
     </row>
   </sheetData>

--- a/Learning/Competitive_Programming_Questions_Review.XLSX
+++ b/Learning/Competitive_Programming_Questions_Review.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\only one folder\CompetitiveProgramming Github Repo\Competitive-Programming\Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F21822BD-0C07-41F2-AFA0-6BC8E8813916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E58824-5A4E-458B-BFCB-01E2E6B56B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="308">
   <si>
     <t>Problem</t>
   </si>
@@ -1292,6 +1292,24 @@
   </si>
   <si>
     <t>Similarly in the bfs approach if we encounter a even val node we check if the node has grandchildren or not and if they exist we add it to the sum. And return at the end.</t>
+  </si>
+  <si>
+    <t>Binary Search Tree to Greater Sum Tree</t>
+  </si>
+  <si>
+    <t>Binary Tree, DFS, BFS, etc..</t>
+  </si>
+  <si>
+    <t>I was able to solve this question. It took more time to understand the question. Here for every node we have to update the node-&gt;val by (sum of all the values larger than it including itself.</t>
+  </si>
+  <si>
+    <t>So we know that the right subtree in Bst contains larger values than the node and left subtree contains nodes with lesser value of key than the node. So we have to update the node's value by the sum of it's values plus the larger key nodes that itself. To do this in BST we have to first traverse to right part of the subtree. We have declared a prevsum variable which will store the summation of larger key variables for that node. When we arrive at a particular node we add prevsum to it's value then after that we update the prevsum to root-&gt;val's value for the upcoming node. In this way we update all the node's values.</t>
+  </si>
+  <si>
+    <t>Convert BST To Greater Tree.</t>
+  </si>
+  <si>
+    <t>Binary Search Tree, DFS, BFS</t>
   </si>
 </sst>
 </file>
@@ -1702,9 +1720,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H90"/>
+  <dimension ref="A1:H92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B91" workbookViewId="0">
       <selection activeCell="G97" sqref="G97"/>
     </sheetView>
   </sheetViews>
@@ -3166,7 +3184,7 @@
       <c r="C89" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D89" s="4" t="s">
+      <c r="D89" s="8" t="s">
         <v>295</v>
       </c>
       <c r="E89" t="s">
@@ -3188,6 +3206,55 @@
       </c>
       <c r="H90" s="4" t="s">
         <v>301</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="144" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>94</v>
+      </c>
+      <c r="B91">
+        <v>1038</v>
+      </c>
+      <c r="C91" t="s">
+        <v>13</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="E91" t="s">
+        <v>303</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="G91" t="s">
+        <v>290</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B92">
+        <v>538</v>
+      </c>
+      <c r="C92" t="s">
+        <v>13</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="E92" t="s">
+        <v>307</v>
+      </c>
+      <c r="F92" t="s">
+        <v>24</v>
+      </c>
+      <c r="G92" t="s">
+        <v>94</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Learning/Competitive_Programming_Questions_Review.XLSX
+++ b/Learning/Competitive_Programming_Questions_Review.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\only one folder\CompetitiveProgramming Github Repo\Competitive-Programming\Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E58824-5A4E-458B-BFCB-01E2E6B56B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF24E71-7409-4F68-AAF3-52F4199CCFE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="318">
   <si>
     <t>Problem</t>
   </si>
@@ -1310,6 +1310,36 @@
   </si>
   <si>
     <t>Binary Search Tree, DFS, BFS</t>
+  </si>
+  <si>
+    <t>Root Equals Sum of Children.</t>
+  </si>
+  <si>
+    <t>Binary tree</t>
+  </si>
+  <si>
+    <t>Check if root-&gt;val is equal to sum of it's children</t>
+  </si>
+  <si>
+    <t>1) Simple Checking</t>
+  </si>
+  <si>
+    <t>Find a corresponding node of a binary tree in a clone of that tree.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Binary Tree </t>
+  </si>
+  <si>
+    <t>Traversal and  checking if root-&gt;val == target == val</t>
+  </si>
+  <si>
+    <t>1) Simple Checking and Traversing a Binary Tree</t>
+  </si>
+  <si>
+    <t>Even Odd Tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Binary Tree, DFS, BFS </t>
   </si>
 </sst>
 </file>
@@ -1720,10 +1750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H92"/>
+  <dimension ref="A1:H95"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B91" workbookViewId="0">
-      <selection activeCell="G97" sqref="G97"/>
+      <selection activeCell="G98" sqref="G98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3235,6 +3265,9 @@
       </c>
     </row>
     <row r="92" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>24</v>
+      </c>
       <c r="B92">
         <v>538</v>
       </c>
@@ -3255,6 +3288,72 @@
       </c>
       <c r="H92" s="4" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>24</v>
+      </c>
+      <c r="B93">
+        <v>2236</v>
+      </c>
+      <c r="C93" t="s">
+        <v>64</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="E93" t="s">
+        <v>309</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="G93" t="s">
+        <v>311</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>24</v>
+      </c>
+      <c r="B94">
+        <v>1379</v>
+      </c>
+      <c r="C94" t="s">
+        <v>64</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="E94" t="s">
+        <v>313</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="G94" t="s">
+        <v>315</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B95">
+        <v>1609</v>
+      </c>
+      <c r="C95" t="s">
+        <v>13</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="E95" t="s">
+        <v>317</v>
       </c>
     </row>
   </sheetData>

--- a/Learning/Competitive_Programming_Questions_Review.XLSX
+++ b/Learning/Competitive_Programming_Questions_Review.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\only one folder\CompetitiveProgramming Github Repo\Competitive-Programming\Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF24E71-7409-4F68-AAF3-52F4199CCFE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9C7194-8F03-44A9-9C48-D3F66E7B9ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="336">
   <si>
     <t>Problem</t>
   </si>
@@ -1340,6 +1340,60 @@
   </si>
   <si>
     <t xml:space="preserve">Binary Tree, DFS, BFS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When I first saw the question, it was quite evident that we have to use Breadth first Search. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) BFS </t>
+  </si>
+  <si>
+    <t>Our root is at level index 0. For our even - indexed level, we check if the level containing odd numbers in strictly increasing order. If not then return false. For an odd indexed level, we had to check it contains all the even numbers in strictly decreasing order. We used our regular bfs stored the level numbers and elements in a vector. and according conditions checked if any case fail or not. If at the end every  level is following the criteria of even-odd tree. We return true.</t>
+  </si>
+  <si>
+    <t>Sum of Root to leaf binary Numbers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Binary Tree, Tree, DFS </t>
+  </si>
+  <si>
+    <t>Go from root to leaf and every time you go deeper you have to increase the prevnumber by 2 and then add the root-&gt;val to it.</t>
+  </si>
+  <si>
+    <t>1) DFS Approach</t>
+  </si>
+  <si>
+    <t>You require a num variable which will store the number that was accumulated till the prev node from the root node. Then for the current case it's value will be increased by 2 as we have moved to a new depth. Then we add the root-&gt;val to it. If the current node is leaf node then we add it to the sum. This way we accumulate all the sum of the numbers created through these paths. and return. Now return the sum in the main function.</t>
+  </si>
+  <si>
+    <t>Maximum Binary Tree</t>
+  </si>
+  <si>
+    <t>Binary Tree, DFs, BFS, Divide and Conquer</t>
+  </si>
+  <si>
+    <t>Divide and conquer strategy stucked in my mind as we have to divide the array across the maximum element. The subarray prefix goes to left subtree and the subarray suffix to the maximum goes to the right Subtree.</t>
+  </si>
+  <si>
+    <t>1) Divide and Conquer and DFS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First we pass the whole array from 0 to n - 1 to the function. After that we find the maximum element in that partition and note it's index and we call the left tree for start , index - 1 and build right subtree from index + 1, end. Base - Case if (start &gt; end) the partition is exhausted we return null. </t>
+  </si>
+  <si>
+    <t>Construct Binary Search Tree From Preorder Traversal.</t>
+  </si>
+  <si>
+    <t>It took some time but I got the concept behind transforming it to bst.</t>
+  </si>
+  <si>
+    <t>1) Preorder traversal stores node, left and then right</t>
+  </si>
+  <si>
+    <t>Binary Search Tree, Preorder Traversal, Divide and Conquer Strategy</t>
+  </si>
+  <si>
+    <t>We know that preorder traversal first visit the root node then left and right node. In BST we know that All the nodes to right of the node are greater than the root-&gt;val and all the node which are left to node are lesser than the node's value. Therefore using this characteristics, First element is the root node, the next element if smaller than the root-&gt;node is the root of the left subtree, and after traversing ahead the first element which is greater than the root node is the root of the right subtree with in the partition. At start we pass the whole array as input. After that we find the index of the element greater than the root element and divide the array into two parts. From start + 1, index - 1 we pass it to the left Subtree and from index, end to the right subtree and in this way we create a binary search tree from preorder traversal.</t>
   </si>
 </sst>
 </file>
@@ -1451,9 +1505,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1468,6 +1519,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1750,10 +1804,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H95"/>
+  <dimension ref="A1:H98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B91" workbookViewId="0">
-      <selection activeCell="G98" sqref="G98"/>
+    <sheetView tabSelected="1" topLeftCell="B98" workbookViewId="0">
+      <selection activeCell="H108" sqref="H108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1764,8 +1818,8 @@
     <col min="4" max="4" width="15.77734375" customWidth="1"/>
     <col min="5" max="5" width="27.44140625" customWidth="1"/>
     <col min="6" max="6" width="35.88671875" customWidth="1"/>
-    <col min="7" max="7" width="41.6640625" customWidth="1"/>
-    <col min="8" max="8" width="58.88671875" customWidth="1"/>
+    <col min="7" max="7" width="34.21875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="69" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -1787,10 +1841,10 @@
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="10" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1818,7 +1872,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="78" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>44825</v>
       </c>
       <c r="B3" s="2">
@@ -1827,7 +1881,7 @@
       <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E3" t="s">
@@ -1851,11 +1905,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="14" t="s">
         <v>20</v>
       </c>
       <c r="H5" s="4" t="s">
@@ -1872,7 +1926,7 @@
       <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E6" t="s">
@@ -1881,7 +1935,7 @@
       <c r="F6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="4" t="s">
         <v>26</v>
       </c>
       <c r="H6" s="4" t="s">
@@ -1889,26 +1943,26 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="G7" t="s">
+      <c r="G7" s="4" t="s">
         <v>28</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
         <v>36</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="4" t="s">
         <v>30</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="G9" t="s">
+    <row r="9" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="G9" s="4" t="s">
         <v>32</v>
       </c>
       <c r="H9" s="4" t="s">
@@ -1916,7 +1970,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="G10" t="s">
+      <c r="G10" s="4" t="s">
         <v>34</v>
       </c>
       <c r="H10" s="4" t="s">
@@ -1933,7 +1987,7 @@
       <c r="C11" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E11" s="4" t="s">
@@ -1942,31 +1996,31 @@
       <c r="F11" t="s">
         <v>38</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="4" t="s">
         <v>39</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="G12" t="s">
+    <row r="12" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="G12" s="4" t="s">
         <v>43</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="G13" t="s">
+    <row r="13" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="G13" s="4" t="s">
         <v>42</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="6">
+    <row r="14" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
         <v>44826</v>
       </c>
       <c r="B14" s="2">
@@ -1975,7 +2029,7 @@
       <c r="C14" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="7" t="s">
         <v>47</v>
       </c>
       <c r="E14" t="s">
@@ -1988,15 +2042,15 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="G15" t="s">
+    <row r="15" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="G15" s="4" t="s">
         <v>50</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -2006,7 +2060,7 @@
       <c r="C16" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="7" t="s">
         <v>57</v>
       </c>
       <c r="E16" t="s">
@@ -2015,7 +2069,7 @@
       <c r="F16" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="4" t="s">
         <v>60</v>
       </c>
       <c r="H16" s="4" t="s">
@@ -2023,7 +2077,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="G17" t="s">
+      <c r="G17" s="4" t="s">
         <v>62</v>
       </c>
       <c r="H17" s="4" t="s">
@@ -2031,7 +2085,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <v>44828</v>
       </c>
       <c r="B18">
@@ -2040,7 +2094,7 @@
       <c r="C18" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="6" t="s">
         <v>65</v>
       </c>
       <c r="E18" t="s">
@@ -2049,7 +2103,7 @@
       <c r="F18" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="4" t="s">
         <v>68</v>
       </c>
       <c r="H18" s="4" t="s">
@@ -2057,7 +2111,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="G19" t="s">
+      <c r="G19" s="4" t="s">
         <v>69</v>
       </c>
       <c r="H19" s="4" t="s">
@@ -2074,7 +2128,7 @@
       <c r="C20" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="6" t="s">
         <v>72</v>
       </c>
       <c r="E20" t="s">
@@ -2083,14 +2137,14 @@
       <c r="F20" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="4" t="s">
         <v>75</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="G21" s="4" t="s">
         <v>77</v>
       </c>
@@ -2098,7 +2152,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="G22" s="4" t="s">
         <v>79</v>
       </c>
@@ -2106,11 +2160,11 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="F23" t="s">
         <v>81</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="4" t="s">
         <v>82</v>
       </c>
       <c r="H23" s="4" t="s">
@@ -2127,7 +2181,7 @@
       <c r="C24" t="s">
         <v>64</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="6" t="s">
         <v>84</v>
       </c>
       <c r="E24" t="s">
@@ -2136,7 +2190,7 @@
       <c r="F24" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="4" t="s">
         <v>86</v>
       </c>
       <c r="H24" s="4" t="s">
@@ -2144,18 +2198,18 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G25" t="s">
+      <c r="G25" s="4" t="s">
         <v>88</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="F26" t="s">
         <v>81</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="4" t="s">
         <v>90</v>
       </c>
       <c r="H26" s="4" t="s">
@@ -2163,14 +2217,14 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="G27" t="s">
+      <c r="G27" s="4" t="s">
         <v>92</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>94</v>
       </c>
@@ -2180,7 +2234,7 @@
       <c r="C28" t="s">
         <v>64</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="7" t="s">
         <v>95</v>
       </c>
       <c r="E28" t="s">
@@ -2189,7 +2243,7 @@
       <c r="F28" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="4" t="s">
         <v>98</v>
       </c>
       <c r="H28" s="4" t="s">
@@ -2206,7 +2260,7 @@
       <c r="C29" t="s">
         <v>64</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="6" t="s">
         <v>100</v>
       </c>
       <c r="E29" t="s">
@@ -2215,25 +2269,25 @@
       <c r="F29" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="4" t="s">
         <v>104</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="F30" t="s">
         <v>107</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>94</v>
       </c>
@@ -2243,7 +2297,7 @@
       <c r="C31" t="s">
         <v>64</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="7" t="s">
         <v>109</v>
       </c>
       <c r="E31" t="s">
@@ -2252,7 +2306,7 @@
       <c r="F31" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="4" t="s">
         <v>112</v>
       </c>
       <c r="H31" s="4" t="s">
@@ -2260,14 +2314,14 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="G32" t="s">
+      <c r="G32" s="4" t="s">
         <v>114</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>24</v>
       </c>
@@ -2277,7 +2331,7 @@
       <c r="C33" t="s">
         <v>64</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="6" t="s">
         <v>116</v>
       </c>
       <c r="E33" t="s">
@@ -2297,14 +2351,14 @@
       <c r="F34" t="s">
         <v>81</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="4" t="s">
         <v>121</v>
       </c>
       <c r="H34" s="4" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>24</v>
       </c>
@@ -2314,7 +2368,7 @@
       <c r="C35" t="s">
         <v>64</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="6" t="s">
         <v>123</v>
       </c>
       <c r="E35" t="s">
@@ -2323,18 +2377,18 @@
       <c r="F35" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="4" t="s">
         <v>126</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="F36" t="s">
         <v>81</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="4" t="s">
         <v>127</v>
       </c>
       <c r="H36" s="4" t="s">
@@ -2351,7 +2405,7 @@
       <c r="C37" t="s">
         <v>64</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="6" t="s">
         <v>130</v>
       </c>
       <c r="E37" t="s">
@@ -2360,22 +2414,22 @@
       <c r="F37" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" s="4" t="s">
         <v>133</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="144" x14ac:dyDescent="0.3">
-      <c r="G38" t="s">
+    <row r="38" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="G38" s="4" t="s">
         <v>135</v>
       </c>
       <c r="H38" s="4" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>24</v>
       </c>
@@ -2385,7 +2439,7 @@
       <c r="C39" t="s">
         <v>64</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="7" t="s">
         <v>137</v>
       </c>
       <c r="E39" t="s">
@@ -2394,7 +2448,7 @@
       <c r="F39" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" s="4" t="s">
         <v>140</v>
       </c>
       <c r="H39" s="4" t="s">
@@ -2411,7 +2465,7 @@
       <c r="C40" t="s">
         <v>64</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="7" t="s">
         <v>142</v>
       </c>
       <c r="E40" t="s">
@@ -2420,15 +2474,15 @@
       <c r="F40" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" s="4" t="s">
         <v>145</v>
       </c>
       <c r="H40" s="4" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A41" s="6">
+    <row r="41" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="5">
         <v>44829</v>
       </c>
       <c r="B41">
@@ -2437,7 +2491,7 @@
       <c r="C41" t="s">
         <v>13</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="6" t="s">
         <v>147</v>
       </c>
       <c r="E41" t="s">
@@ -2446,14 +2500,14 @@
       <c r="F41" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" s="4" t="s">
         <v>149</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="G42" s="4" t="s">
         <v>151</v>
       </c>
@@ -2471,7 +2525,7 @@
       <c r="C43" t="s">
         <v>13</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="6" t="s">
         <v>153</v>
       </c>
       <c r="E43" s="4" t="s">
@@ -2480,35 +2534,35 @@
       <c r="F43" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" s="4" t="s">
         <v>157</v>
       </c>
       <c r="H43" s="4" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="144" x14ac:dyDescent="0.3">
       <c r="F44" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" s="4" t="s">
         <v>158</v>
       </c>
       <c r="H44" s="4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A45" s="6">
+    <row r="45" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A45" s="5">
         <v>44830</v>
       </c>
       <c r="B45">
         <v>15</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D45" s="6" t="s">
         <v>160</v>
       </c>
       <c r="E45" t="s">
@@ -2517,14 +2571,14 @@
       <c r="F45" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" s="4" t="s">
         <v>163</v>
       </c>
       <c r="H45" s="4" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="G46" s="4" t="s">
         <v>165</v>
       </c>
@@ -2533,7 +2587,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A47" s="6">
+      <c r="A47" s="5">
         <v>44831</v>
       </c>
       <c r="B47">
@@ -2542,7 +2596,7 @@
       <c r="C47" t="s">
         <v>64</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="6" t="s">
         <v>162</v>
       </c>
       <c r="E47" t="s">
@@ -2551,7 +2605,7 @@
       <c r="F47" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" s="4" t="s">
         <v>169</v>
       </c>
       <c r="H47" s="4" t="s">
@@ -2559,15 +2613,15 @@
       </c>
     </row>
     <row r="48" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="G48" t="s">
+      <c r="G48" s="4" t="s">
         <v>171</v>
       </c>
       <c r="H48" s="4" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G49" t="s">
+    <row r="49" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G49" s="4" t="s">
         <v>173</v>
       </c>
     </row>
@@ -2581,7 +2635,7 @@
       <c r="C50" t="s">
         <v>13</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D50" s="6" t="s">
         <v>174</v>
       </c>
       <c r="E50" t="s">
@@ -2590,7 +2644,7 @@
       <c r="F50" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G50" s="4" t="s">
         <v>176</v>
       </c>
       <c r="H50" s="4" t="s">
@@ -2598,7 +2652,7 @@
       </c>
     </row>
     <row r="51" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="G51" t="s">
+      <c r="G51" s="4" t="s">
         <v>178</v>
       </c>
       <c r="H51" s="4" t="s">
@@ -2615,7 +2669,7 @@
       <c r="C52" t="s">
         <v>64</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D52" s="6" t="s">
         <v>180</v>
       </c>
       <c r="E52" t="s">
@@ -2624,7 +2678,7 @@
       <c r="F52" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G52" s="4" t="s">
         <v>182</v>
       </c>
       <c r="H52" s="4" t="s">
@@ -2638,7 +2692,7 @@
       <c r="C53" t="s">
         <v>13</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="7" t="s">
         <v>184</v>
       </c>
       <c r="E53" t="s">
@@ -2658,7 +2712,7 @@
       <c r="F54" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G54" s="4" t="s">
         <v>189</v>
       </c>
       <c r="H54" s="4" t="s">
@@ -2672,15 +2726,15 @@
       <c r="C55" t="s">
         <v>191</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="D55" s="7" t="s">
         <v>192</v>
       </c>
       <c r="E55" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A57" s="6">
+    <row r="57" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A57" s="5">
         <v>44832</v>
       </c>
       <c r="B57">
@@ -2689,7 +2743,7 @@
       <c r="C57" t="s">
         <v>13</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="D57" s="7" t="s">
         <v>193</v>
       </c>
       <c r="E57" t="s">
@@ -2705,11 +2759,11 @@
         <v>196</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="F58" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G58" s="4" t="s">
         <v>199</v>
       </c>
       <c r="H58" s="4" t="s">
@@ -2717,26 +2771,26 @@
       </c>
     </row>
     <row r="59" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="G59" t="s">
+      <c r="G59" s="4" t="s">
         <v>201</v>
       </c>
       <c r="H59" s="4" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="G60" t="s">
+    <row r="60" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="G60" s="4" t="s">
         <v>203</v>
       </c>
       <c r="H60" s="4" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" ht="288" x14ac:dyDescent="0.3">
       <c r="F61" t="s">
         <v>206</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G61" s="4" t="s">
         <v>205</v>
       </c>
       <c r="H61" s="4" t="s">
@@ -2747,7 +2801,7 @@
       <c r="F62" t="s">
         <v>208</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G62" s="4" t="s">
         <v>209</v>
       </c>
       <c r="H62" s="4" t="s">
@@ -2764,7 +2818,7 @@
       <c r="C63" t="s">
         <v>13</v>
       </c>
-      <c r="D63" s="8" t="s">
+      <c r="D63" s="7" t="s">
         <v>211</v>
       </c>
       <c r="E63" t="s">
@@ -2773,21 +2827,21 @@
       <c r="F63" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G63" s="4" t="s">
         <v>214</v>
       </c>
       <c r="H63" s="4" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="144" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B64">
         <v>154</v>
       </c>
       <c r="C64" t="s">
         <v>13</v>
       </c>
-      <c r="D64" s="7" t="s">
+      <c r="D64" s="6" t="s">
         <v>216</v>
       </c>
       <c r="E64" s="4" t="s">
@@ -2796,7 +2850,7 @@
       <c r="F64" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G64" s="4" t="s">
         <v>219</v>
       </c>
       <c r="H64" s="4" t="s">
@@ -2804,7 +2858,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A65" s="6">
+      <c r="A65" s="5">
         <v>44833</v>
       </c>
       <c r="B65">
@@ -2813,7 +2867,7 @@
       <c r="C65" t="s">
         <v>64</v>
       </c>
-      <c r="D65" s="8" t="s">
+      <c r="D65" s="7" t="s">
         <v>221</v>
       </c>
       <c r="E65" t="s">
@@ -2822,14 +2876,14 @@
       <c r="F65" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G65" s="4" t="s">
         <v>224</v>
       </c>
       <c r="H65" s="4" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>24</v>
       </c>
@@ -2839,7 +2893,7 @@
       <c r="C66" t="s">
         <v>13</v>
       </c>
-      <c r="D66" s="7" t="s">
+      <c r="D66" s="6" t="s">
         <v>226</v>
       </c>
       <c r="E66" t="s">
@@ -2848,14 +2902,14 @@
       <c r="F66" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G66" s="4" t="s">
         <v>229</v>
       </c>
       <c r="H66" s="4" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>24</v>
       </c>
@@ -2865,7 +2919,7 @@
       <c r="C67" t="s">
         <v>191</v>
       </c>
-      <c r="D67" s="7" t="s">
+      <c r="D67" s="6" t="s">
         <v>231</v>
       </c>
       <c r="E67" t="s">
@@ -2874,7 +2928,7 @@
       <c r="F67" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G67" s="4" t="s">
         <v>233</v>
       </c>
       <c r="H67" s="4" t="s">
@@ -2891,7 +2945,7 @@
       <c r="C68" t="s">
         <v>13</v>
       </c>
-      <c r="D68" s="7" t="s">
+      <c r="D68" s="6" t="s">
         <v>235</v>
       </c>
       <c r="E68" t="s">
@@ -2907,8 +2961,8 @@
         <v>238</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="G69" t="s">
+    <row r="69" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="G69" s="4" t="s">
         <v>240</v>
       </c>
       <c r="H69" s="4" t="s">
@@ -2925,7 +2979,7 @@
       <c r="C70" t="s">
         <v>13</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="D70" s="13" t="s">
         <v>242</v>
       </c>
     </row>
@@ -2939,11 +2993,11 @@
       <c r="C71" t="s">
         <v>13</v>
       </c>
-      <c r="D71" s="4" t="s">
+      <c r="D71" s="13" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>24</v>
       </c>
@@ -2953,7 +3007,7 @@
       <c r="C72" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="7" t="s">
+      <c r="D72" s="6" t="s">
         <v>244</v>
       </c>
       <c r="E72" t="s">
@@ -2962,7 +3016,7 @@
       <c r="F72" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G72" s="4" t="s">
         <v>247</v>
       </c>
       <c r="H72" s="4" t="s">
@@ -2970,14 +3024,14 @@
       </c>
     </row>
     <row r="73" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="G73" t="s">
+      <c r="G73" s="4" t="s">
         <v>249</v>
       </c>
       <c r="H73" s="4" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>24</v>
       </c>
@@ -2987,7 +3041,7 @@
       <c r="C74" t="s">
         <v>64</v>
       </c>
-      <c r="D74" s="8" t="s">
+      <c r="D74" s="7" t="s">
         <v>251</v>
       </c>
       <c r="E74" t="s">
@@ -2996,14 +3050,14 @@
       <c r="F74" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="G74" t="s">
+      <c r="G74" s="4" t="s">
         <v>254</v>
       </c>
       <c r="H74" s="4" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="G75" s="4" t="s">
         <v>256</v>
       </c>
@@ -3011,13 +3065,13 @@
         <v>257</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="G76" s="4" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A77" s="6">
+    <row r="77" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A77" s="5">
         <v>44834</v>
       </c>
       <c r="B77">
@@ -3026,7 +3080,7 @@
       <c r="C77" t="s">
         <v>64</v>
       </c>
-      <c r="D77" s="8" t="s">
+      <c r="D77" s="7" t="s">
         <v>259</v>
       </c>
       <c r="E77" t="s">
@@ -3035,15 +3089,15 @@
       <c r="F77" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="G77" t="s">
+      <c r="G77" s="4" t="s">
         <v>247</v>
       </c>
       <c r="H77" s="4" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="G78" t="s">
+    <row r="78" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="G78" s="4" t="s">
         <v>263</v>
       </c>
       <c r="H78" s="4" t="s">
@@ -3060,7 +3114,7 @@
       <c r="C79" t="s">
         <v>64</v>
       </c>
-      <c r="D79" s="8" t="s">
+      <c r="D79" s="7" t="s">
         <v>265</v>
       </c>
       <c r="E79" t="s">
@@ -3069,14 +3123,14 @@
       <c r="F79" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="G79" t="s">
+      <c r="G79" s="4" t="s">
         <v>268</v>
       </c>
       <c r="H79" s="4" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>24</v>
       </c>
@@ -3086,7 +3140,7 @@
       <c r="C80" t="s">
         <v>64</v>
       </c>
-      <c r="D80" s="8" t="s">
+      <c r="D80" s="7" t="s">
         <v>270</v>
       </c>
       <c r="E80" t="s">
@@ -3095,15 +3149,15 @@
       <c r="F80" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="G80" t="s">
+      <c r="G80" s="4" t="s">
         <v>273</v>
       </c>
       <c r="H80" s="4" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="G81" t="s">
+    <row r="81" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="G81" s="4" t="s">
         <v>275</v>
       </c>
       <c r="H81" s="4" t="s">
@@ -3120,13 +3174,13 @@
       <c r="C82" t="s">
         <v>64</v>
       </c>
-      <c r="D82" s="14" t="s">
+      <c r="D82" s="13" t="s">
         <v>277</v>
       </c>
       <c r="E82" s="4"/>
     </row>
-    <row r="84" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A84" s="6">
+    <row r="84" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A84" s="5">
         <v>44835</v>
       </c>
       <c r="B84">
@@ -3135,7 +3189,7 @@
       <c r="C84" t="s">
         <v>13</v>
       </c>
-      <c r="D84" s="8" t="s">
+      <c r="D84" s="7" t="s">
         <v>278</v>
       </c>
       <c r="E84" s="4" t="s">
@@ -3144,33 +3198,33 @@
       <c r="F84" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="G84" t="s">
+      <c r="G84" s="4" t="s">
         <v>281</v>
       </c>
       <c r="H84" s="4" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="G85" t="s">
+    <row r="85" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="G85" s="4" t="s">
         <v>283</v>
       </c>
       <c r="H85" s="4" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" ht="201.6" x14ac:dyDescent="0.3">
       <c r="F86" t="s">
         <v>294</v>
       </c>
-      <c r="G86" t="s">
+      <c r="G86" s="4" t="s">
         <v>285</v>
       </c>
       <c r="H86" s="4" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" ht="144" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>24</v>
       </c>
@@ -3180,7 +3234,7 @@
       <c r="C87" t="s">
         <v>13</v>
       </c>
-      <c r="D87" s="8" t="s">
+      <c r="D87" s="7" t="s">
         <v>287</v>
       </c>
       <c r="E87" t="s">
@@ -3189,15 +3243,15 @@
       <c r="F87" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="G87" t="s">
+      <c r="G87" s="4" t="s">
         <v>290</v>
       </c>
       <c r="H87" s="4" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="G88" t="s">
+    <row r="88" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="G88" s="4" t="s">
         <v>292</v>
       </c>
       <c r="H88" s="4" t="s">
@@ -3214,7 +3268,7 @@
       <c r="C89" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D89" s="8" t="s">
+      <c r="D89" s="7" t="s">
         <v>295</v>
       </c>
       <c r="E89" t="s">
@@ -3231,14 +3285,14 @@
       </c>
     </row>
     <row r="90" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="G90" t="s">
+      <c r="G90" s="4" t="s">
         <v>300</v>
       </c>
       <c r="H90" s="4" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="144" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>94</v>
       </c>
@@ -3248,7 +3302,7 @@
       <c r="C91" t="s">
         <v>13</v>
       </c>
-      <c r="D91" s="8" t="s">
+      <c r="D91" s="7" t="s">
         <v>302</v>
       </c>
       <c r="E91" t="s">
@@ -3257,7 +3311,7 @@
       <c r="F91" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="G91" t="s">
+      <c r="G91" s="4" t="s">
         <v>290</v>
       </c>
       <c r="H91" s="4" t="s">
@@ -3274,7 +3328,7 @@
       <c r="C92" t="s">
         <v>13</v>
       </c>
-      <c r="D92" s="8" t="s">
+      <c r="D92" s="7" t="s">
         <v>306</v>
       </c>
       <c r="E92" t="s">
@@ -3283,7 +3337,7 @@
       <c r="F92" t="s">
         <v>24</v>
       </c>
-      <c r="G92" t="s">
+      <c r="G92" s="4" t="s">
         <v>94</v>
       </c>
       <c r="H92" s="4" t="s">
@@ -3300,7 +3354,7 @@
       <c r="C93" t="s">
         <v>64</v>
       </c>
-      <c r="D93" s="8" t="s">
+      <c r="D93" s="7" t="s">
         <v>308</v>
       </c>
       <c r="E93" t="s">
@@ -3309,7 +3363,7 @@
       <c r="F93" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="G93" t="s">
+      <c r="G93" s="4" t="s">
         <v>311</v>
       </c>
       <c r="H93" s="4" t="s">
@@ -3326,7 +3380,7 @@
       <c r="C94" t="s">
         <v>64</v>
       </c>
-      <c r="D94" s="8" t="s">
+      <c r="D94" s="7" t="s">
         <v>312</v>
       </c>
       <c r="E94" t="s">
@@ -3335,25 +3389,115 @@
       <c r="F94" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="G94" t="s">
+      <c r="G94" s="4" t="s">
         <v>315</v>
       </c>
       <c r="H94" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>24</v>
+      </c>
       <c r="B95">
         <v>1609</v>
       </c>
       <c r="C95" t="s">
         <v>13</v>
       </c>
-      <c r="D95" s="8" t="s">
+      <c r="D95" s="7" t="s">
         <v>316</v>
       </c>
       <c r="E95" t="s">
         <v>317</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="H95" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>24</v>
+      </c>
+      <c r="B96">
+        <v>1022</v>
+      </c>
+      <c r="C96" t="s">
+        <v>13</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="E96" t="s">
+        <v>322</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="H96" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>94</v>
+      </c>
+      <c r="B97">
+        <v>654</v>
+      </c>
+      <c r="C97" t="s">
+        <v>13</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="H97" s="4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>24</v>
+      </c>
+      <c r="B98">
+        <v>1008</v>
+      </c>
+      <c r="C98" t="s">
+        <v>13</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="H98" s="4" t="s">
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -3452,12 +3596,12 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3489,8 +3633,8 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11" t="s">
         <v>52</v>
       </c>
     </row>

--- a/Learning/Competitive_Programming_Questions_Review.XLSX
+++ b/Learning/Competitive_Programming_Questions_Review.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\only one folder\CompetitiveProgramming Github Repo\Competitive-Programming\Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9C7194-8F03-44A9-9C48-D3F66E7B9ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F86688A-17BA-4E2F-9C82-975F5E07D8EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="361">
   <si>
     <t>Problem</t>
   </si>
@@ -1394,6 +1394,82 @@
   </si>
   <si>
     <t>We know that preorder traversal first visit the root node then left and right node. In BST we know that All the nodes to right of the node are greater than the root-&gt;val and all the node which are left to node are lesser than the node's value. Therefore using this characteristics, First element is the root node, the next element if smaller than the root-&gt;node is the root of the left subtree, and after traversing ahead the first element which is greater than the root node is the root of the right subtree with in the partition. At start we pass the whole array as input. After that we find the index of the element greater than the root element and divide the array into two parts. From start + 1, index - 1 we pass it to the left Subtree and from index, end to the right subtree and in this way we create a binary search tree from preorder traversal.</t>
+  </si>
+  <si>
+    <t>Add Two Numbers</t>
+  </si>
+  <si>
+    <t>Linked List, Math, Recursion</t>
+  </si>
+  <si>
+    <t>I used the Iterative approach at the first. Then after that used recursion by watching the answer in the discussion section.</t>
+  </si>
+  <si>
+    <t>1) Using Recursion and Math</t>
+  </si>
+  <si>
+    <t>If both lists l1 and l2 become null return NULL. Now any one of the Linked List exists then we find the sum. Then we create a newHead and assign sum%10 to it and the carry(sum/10) . Now if the *next = l1 ? l1-&gt;next : NULL;if next exists then we add the carry to it. and if not then we create a new next with carry value. and pass it as l1. Now we make a recursion call to make the next with next and l2-&gt;next and return the newHead as the answer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biweekly Contest 88 </t>
+  </si>
+  <si>
+    <t>Remove Letter To Equalize Frequency</t>
+  </si>
+  <si>
+    <t>HashMap and Set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using two hashmaps one for storing frequency of each characters. Another one for storing the frequency of frequencies. </t>
+  </si>
+  <si>
+    <t>1) My Answer during the contest</t>
+  </si>
+  <si>
+    <t>2) Discussion Forum Answer</t>
+  </si>
+  <si>
+    <t>So I created these hashmaps one for storing the frequency of the characters. And the other for storing the frequency of the frequencies. After that if we 3 different frequencies, then we return false. If we have one different firequency which should be either 1 or that frequency should be occuring once then we return true. If the map size is 2 then we check two conditions if the smaller frequency is ( 1 + larger frequency) and if either the larger frequency occur one time or ( the smaller frequency is 1 occuring 1 time then we return true. Other wise false.</t>
+  </si>
+  <si>
+    <t>In this answer he chooses every element and check if by deleting that character is the frequency of all the other characters is same or not. If Yes return true. Or else false. In this case basically. By deleting we mean that we don't consider that element when counting the frequencies of the elements.</t>
+  </si>
+  <si>
+    <t>Longest Uploaded Prefix</t>
+  </si>
+  <si>
+    <t>HashSet</t>
+  </si>
+  <si>
+    <t>Didn't got the answer during the contest</t>
+  </si>
+  <si>
+    <t>1) Using Set</t>
+  </si>
+  <si>
+    <t>We created a set of integers. Now when upload method is called we insert the video to the set. Initially no video is uploaded, if longest method is called we return the video with highest prefix no. uploaded till now. For that we check if (t + 1)th video is present or not if yes we increment the t until the condition returns 0. In this way we return the longest uploaded prefix.</t>
+  </si>
+  <si>
+    <t>Bitwise Xor of all Pairings</t>
+  </si>
+  <si>
+    <t>Bit Manipulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using the concept of xor operation of any 
+number with itself gives zero. </t>
+  </si>
+  <si>
+    <t>1) Using Bit Manipulation</t>
+  </si>
+  <si>
+    <t>Here we find the sizes of both the arrays. Then we store the xor of all elements of first array in x. and second array in y. Now if the size of first array is odd then every element of 2nd matrix would be repeated once for the calculation therefore we multiply (nums1.size() % 2== 0 * y) ^ (nums2.size() * x). Same goes for the condition of the second array.</t>
+  </si>
+  <si>
+    <t>Hard</t>
+  </si>
+  <si>
+    <t>Wasn't not able to attempt this question.</t>
   </si>
 </sst>
 </file>
@@ -1804,10 +1880,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H98"/>
+  <dimension ref="A1:H107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B98" workbookViewId="0">
-      <selection activeCell="H108" sqref="H108"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="G106" sqref="G106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3498,6 +3574,140 @@
       </c>
       <c r="H98" s="4" t="s">
         <v>335</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>24</v>
+      </c>
+      <c r="B99">
+        <v>2</v>
+      </c>
+      <c r="C99" t="s">
+        <v>13</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="E99" t="s">
+        <v>337</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H99" s="4" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A101" s="5">
+        <v>44835</v>
+      </c>
+      <c r="B101" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>94</v>
+      </c>
+      <c r="B103">
+        <v>2423</v>
+      </c>
+      <c r="C103" t="s">
+        <v>64</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="E103" t="s">
+        <v>343</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="H103" s="4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="G104" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="H104" s="4" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>24</v>
+      </c>
+      <c r="B105">
+        <v>2424</v>
+      </c>
+      <c r="C105" t="s">
+        <v>13</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="E105" t="s">
+        <v>350</v>
+      </c>
+      <c r="F105" t="s">
+        <v>351</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="H105" s="4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>24</v>
+      </c>
+      <c r="B106">
+        <v>2425</v>
+      </c>
+      <c r="C106" t="s">
+        <v>13</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="E106" t="s">
+        <v>355</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="H106" s="4" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>24</v>
+      </c>
+      <c r="B107">
+        <v>2426</v>
+      </c>
+      <c r="C107" t="s">
+        <v>359</v>
+      </c>
+      <c r="F107" t="s">
+        <v>360</v>
       </c>
     </row>
   </sheetData>

--- a/Learning/Competitive_Programming_Questions_Review.XLSX
+++ b/Learning/Competitive_Programming_Questions_Review.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\only one folder\CompetitiveProgramming Github Repo\Competitive-Programming\Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F86688A-17BA-4E2F-9C82-975F5E07D8EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81701C1C-8D3F-4B57-A0B2-D95E5C718BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="378">
   <si>
     <t>Problem</t>
   </si>
@@ -1470,6 +1470,57 @@
   </si>
   <si>
     <t>Wasn't not able to attempt this question.</t>
+  </si>
+  <si>
+    <t>Didn't Attempt</t>
+  </si>
+  <si>
+    <t>Defanging An Ip Address</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Replace . With [.]. Simple!!</t>
+  </si>
+  <si>
+    <t>1) Using replace Functions</t>
+  </si>
+  <si>
+    <t>Replaces 7 characters from 0th position of string str1 with the 7 characters of str2 starting from 0th position. Syntax str1.replace(0, 7, str2, 0, 7).</t>
+  </si>
+  <si>
+    <t>2) Using insert function</t>
+  </si>
+  <si>
+    <t>address.insert(i, "[", 0, 1); means insert at ith index this "[" from 0th index only 1 character.</t>
+  </si>
+  <si>
+    <t>3) Using another string</t>
+  </si>
+  <si>
+    <t>When we use another string, then whenever "." comes then add "[.]" to the ans string.</t>
+  </si>
+  <si>
+    <t>Find final value of variable after performing operations</t>
+  </si>
+  <si>
+    <t>Simple.</t>
+  </si>
+  <si>
+    <t>1) Basic equality checks allowed.</t>
+  </si>
+  <si>
+    <t>Just check the middle letter and if it's "+" symbol add to the sum or else decrement the sum.</t>
+  </si>
+  <si>
+    <t>Length of the Last Word</t>
+  </si>
+  <si>
+    <t>1) String Traversal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We will start traversing from the last. We will keep a bool variable letterFound which will tell us the letter has been found or not. Now if we encounter the trailing places from the last we will not do anything. </t>
   </si>
 </sst>
 </file>
@@ -1571,7 +1622,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -1599,6 +1650,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1880,15 +1932,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H107"/>
+  <dimension ref="A1:H113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="G106" sqref="G106"/>
+    <sheetView tabSelected="1" topLeftCell="B106" workbookViewId="0">
+      <selection activeCell="H113" sqref="H113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5546875" customWidth="1"/>
     <col min="3" max="3" width="12.109375" customWidth="1"/>
     <col min="4" max="4" width="15.77734375" customWidth="1"/>
@@ -3706,8 +3758,105 @@
       <c r="C107" t="s">
         <v>359</v>
       </c>
+      <c r="D107" s="13" t="s">
+        <v>361</v>
+      </c>
       <c r="F107" t="s">
         <v>360</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A109" s="15">
+        <v>44836</v>
+      </c>
+      <c r="B109">
+        <v>1108</v>
+      </c>
+      <c r="C109" t="s">
+        <v>64</v>
+      </c>
+      <c r="D109" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="E109" t="s">
+        <v>363</v>
+      </c>
+      <c r="F109" t="s">
+        <v>364</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="H109" s="4" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G110" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="H110" s="4" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G111" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="H111" s="4" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>24</v>
+      </c>
+      <c r="B112">
+        <v>2011</v>
+      </c>
+      <c r="C112" t="s">
+        <v>64</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="E112" t="s">
+        <v>363</v>
+      </c>
+      <c r="F112" t="s">
+        <v>372</v>
+      </c>
+      <c r="G112" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="H112" s="4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>24</v>
+      </c>
+      <c r="B113">
+        <v>58</v>
+      </c>
+      <c r="C113" t="s">
+        <v>64</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="E113" t="s">
+        <v>363</v>
+      </c>
+      <c r="F113" t="s">
+        <v>372</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="H113" s="4" t="s">
+        <v>377</v>
       </c>
     </row>
   </sheetData>

--- a/Learning/Competitive_Programming_Questions_Review.XLSX
+++ b/Learning/Competitive_Programming_Questions_Review.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\only one folder\CompetitiveProgramming Github Repo\Competitive-Programming\Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81701C1C-8D3F-4B57-A0B2-D95E5C718BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBFC5A1-03AA-46B4-A215-5E95B759BE23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="380">
   <si>
     <t>Problem</t>
   </si>
@@ -1520,7 +1520,13 @@
     <t>1) String Traversal</t>
   </si>
   <si>
-    <t xml:space="preserve">We will start traversing from the last. We will keep a bool variable letterFound which will tell us the letter has been found or not. Now if we encounter the trailing places from the last we will not do anything. </t>
+    <t>We will start traversing from the last. We will keep a bool variable letterFound which will tell us the letter has been found or not. Now if we encounter the trailing places from the last we will not do anything. If letter is  encounter we will read it and it to the ans string and assign true to the letterFound variable. Now the next time we encounter the whitespace we have the letterFound == true due to which we break out of the loop. Now our ans string is containing the answer but in reverse fashion. So we reverse it and then return.</t>
+  </si>
+  <si>
+    <t>Alternative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What we can do is declare the index and skip the last places until we found a letter and then break out. Now we can traverse the index to the next coming whitespace and then reverse the ans as above. </t>
   </si>
 </sst>
 </file>
@@ -1932,10 +1938,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H113"/>
+  <dimension ref="A1:H114"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B106" workbookViewId="0">
-      <selection activeCell="H113" sqref="H113"/>
+      <selection activeCell="H115" sqref="H115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3833,7 +3839,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>24</v>
       </c>
@@ -3857,6 +3863,14 @@
       </c>
       <c r="H113" s="4" t="s">
         <v>377</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="G114" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="H114" s="4" t="s">
+        <v>379</v>
       </c>
     </row>
   </sheetData>

--- a/Learning/Competitive_Programming_Questions_Review.XLSX
+++ b/Learning/Competitive_Programming_Questions_Review.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\only one folder\CompetitiveProgramming Github Repo\Competitive-Programming\Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBFC5A1-03AA-46B4-A215-5E95B759BE23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEBC5CD1-B6F1-4031-B948-DB205052F51B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="385">
   <si>
     <t>Problem</t>
   </si>
@@ -1527,6 +1527,21 @@
   </si>
   <si>
     <t xml:space="preserve">What we can do is declare the index and skip the last places until we found a letter and then break out. Now we can traverse the index to the next coming whitespace and then reverse the ans as above. </t>
+  </si>
+  <si>
+    <t>Valid Parentheses</t>
+  </si>
+  <si>
+    <t>Stack and String.</t>
+  </si>
+  <si>
+    <t>Using a stack and pushing all the incoming opening brackets into the stack and whenever a closing bracket comes then check it with the top of the stack, if matches then continue or else return false. If You have to take of different checks like st is empty or not.</t>
+  </si>
+  <si>
+    <t>1) Using Stack and string</t>
+  </si>
+  <si>
+    <t>If the incoming character is an opening bracket, then push it. If the incoming bracket is closing bracket, then first check is the stack empty or not. After that check whether that opening bracket is at the top of the stack to the corresponding closing bracket. If yes then pop the top character and then continue. If the mismatch happens which means than we don't have a valid parentheses return false. If at the end we have an empty stack, it indicates that we have all the opening brackets matched correctly with the closing brackets. We can return true. Or else if the stack is not empty which means there are some opening brackets still present in the stack which haven't found their matches so we return false in this case at the last.</t>
   </si>
 </sst>
 </file>
@@ -1938,10 +1953,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H114"/>
+  <dimension ref="A1:H115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B106" workbookViewId="0">
-      <selection activeCell="H115" sqref="H115"/>
+    <sheetView tabSelected="1" topLeftCell="B111" workbookViewId="0">
+      <selection activeCell="H116" sqref="H116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3871,6 +3886,32 @@
       </c>
       <c r="H114" s="4" t="s">
         <v>379</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="144" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>24</v>
+      </c>
+      <c r="B115">
+        <v>20</v>
+      </c>
+      <c r="C115" t="s">
+        <v>64</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="E115" t="s">
+        <v>381</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="G115" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="H115" s="4" t="s">
+        <v>384</v>
       </c>
     </row>
   </sheetData>

--- a/Learning/Competitive_Programming_Questions_Review.XLSX
+++ b/Learning/Competitive_Programming_Questions_Review.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\only one folder\CompetitiveProgramming Github Repo\Competitive-Programming\Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEBC5CD1-B6F1-4031-B948-DB205052F51B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C04D262-7AB5-44AE-A0CB-3724D12A917E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="402">
   <si>
     <t>Problem</t>
   </si>
@@ -1542,6 +1542,57 @@
   </si>
   <si>
     <t>If the incoming character is an opening bracket, then push it. If the incoming bracket is closing bracket, then first check is the stack empty or not. After that check whether that opening bracket is at the top of the stack to the corresponding closing bracket. If yes then pop the top character and then continue. If the mismatch happens which means than we don't have a valid parentheses return false. If at the end we have an empty stack, it indicates that we have all the opening brackets matched correctly with the closing brackets. We can return true. Or else if the stack is not empty which means there are some opening brackets still present in the stack which haven't found their matches so we return false in this case at the last.</t>
+  </si>
+  <si>
+    <t>Longest Common Prefix</t>
+  </si>
+  <si>
+    <t>Sting and Sorting</t>
+  </si>
+  <si>
+    <t>I used the Brute Force Approach. First I found the minimum size. Then started checking the characters one by one for every string in strs when all of them had a match for a index I used to increment the ans. But whenever a mismatch happens, I have kept a flag which is set to false and we break out of the loop. Then we add the matching characters to the answer string.</t>
+  </si>
+  <si>
+    <t>1) Brute Force</t>
+  </si>
+  <si>
+    <t>Same as in Meta - Cognition.</t>
+  </si>
+  <si>
+    <t>2) Using sort</t>
+  </si>
+  <si>
+    <t>Here I checked how the vector of strings is sorted using the sort function. So it sort on the basis of the current character, if it's values is large then that string is below the checked string. If the current character is last letter to be matched and they both matches, then the string with last letter is put before the other string in dictionary. So Now we take the two strings one is first and the other at the last. Because they are the least matching ones. So if we find the longest common prefix among them we will get it for the whole set of strings. and we return the ans.</t>
+  </si>
+  <si>
+    <t>Word Pattern</t>
+  </si>
+  <si>
+    <t>String and Hash table</t>
+  </si>
+  <si>
+    <t>As soon as I saw, Hash Table is required</t>
+  </si>
+  <si>
+    <t>1) Using hash Table</t>
+  </si>
+  <si>
+    <t>First I store all the words of s(text).  First check the pattern size and word count is same or not. If not return false. Now if the letter is appearing for the first time, we add it to the map. But we have to be careful because we need to also check what string it is referring to. If it is referring to previously occured string pointed by some other letter then we return false. For that we store all the string into the set as we go. Now if it is pointing to a new string itself then we map the letter to the string. Now if the letter is already present in the map. In that case, we check if it was pointing earlier and the current string is same or not. If yes, then continue or else break.</t>
+  </si>
+  <si>
+    <t>Roman to Integer</t>
+  </si>
+  <si>
+    <t>String and Hash Table</t>
+  </si>
+  <si>
+    <t>Hash Table is required for mapping the characters to the Integers.</t>
+  </si>
+  <si>
+    <t>1) Using Hash Table</t>
+  </si>
+  <si>
+    <t>In init() I have mapped all the characters to the numbers. Now special handling is taken for the those symbols which have smaller value and occur before the larger symbol values. So for that we will. Subtract the difference between the larger value and the smaller value. and increment i by 2. In normal case just add directly to the answer and increment is done by 1.</t>
   </si>
 </sst>
 </file>
@@ -1953,10 +2004,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H115"/>
+  <dimension ref="A1:H119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B111" workbookViewId="0">
-      <selection activeCell="H116" sqref="H116"/>
+    <sheetView tabSelected="1" topLeftCell="F117" workbookViewId="0">
+      <selection activeCell="H119" sqref="H119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3912,6 +3963,86 @@
       </c>
       <c r="H115" s="4" t="s">
         <v>384</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="144" x14ac:dyDescent="0.3">
+      <c r="B116">
+        <v>14</v>
+      </c>
+      <c r="C116" t="s">
+        <v>64</v>
+      </c>
+      <c r="D116" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="E116" t="s">
+        <v>386</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="G116" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="H116" s="4" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="G117" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="H117" s="4" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A118" s="5">
+        <v>44837</v>
+      </c>
+      <c r="B118">
+        <v>290</v>
+      </c>
+      <c r="C118" t="s">
+        <v>64</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="E118" t="s">
+        <v>393</v>
+      </c>
+      <c r="F118" t="s">
+        <v>394</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="H118" s="4" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="B119">
+        <v>13</v>
+      </c>
+      <c r="C119" t="s">
+        <v>64</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="E119" t="s">
+        <v>398</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="G119" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="H119" s="4" t="s">
+        <v>401</v>
       </c>
     </row>
   </sheetData>

--- a/Learning/Competitive_Programming_Questions_Review.XLSX
+++ b/Learning/Competitive_Programming_Questions_Review.XLSX
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\only one folder\CompetitiveProgramming Github Repo\Competitive-Programming\Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C04D262-7AB5-44AE-A0CB-3724D12A917E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6497CAA-401C-49D0-888B-41318F8BB442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="422">
   <si>
     <t>Problem</t>
   </si>
@@ -1594,12 +1594,72 @@
   <si>
     <t>In init() I have mapped all the characters to the numbers. Now special handling is taken for the those symbols which have smaller value and occur before the larger symbol values. So for that we will. Subtract the difference between the larger value and the smaller value. and increment i by 2. In normal case just add directly to the answer and increment is done by 1.</t>
   </si>
+  <si>
+    <t>LeetCode Weekly - 316</t>
+  </si>
+  <si>
+    <t>Date - 23 Oct 2022</t>
+  </si>
+  <si>
+    <t>Determine if Two Events have conflict.</t>
+  </si>
+  <si>
+    <t>Question Number</t>
+  </si>
+  <si>
+    <t>Question Name</t>
+  </si>
+  <si>
+    <t>Meta - Cognition.</t>
+  </si>
+  <si>
+    <t>Solutions Approaches</t>
+  </si>
+  <si>
+    <t>Detailed Explanation</t>
+  </si>
+  <si>
+    <t>A very simple Implementation Based Problem. I found out the startTime and endTime of both the events and converted them into minutes. This way the calculation becomes easier.</t>
+  </si>
+  <si>
+    <t>1) Converstion of Time from Hour and Minutes to Minutes.</t>
+  </si>
+  <si>
+    <t>Same as Meta - Cognition.</t>
+  </si>
+  <si>
+    <t>2) Another approach based on String Comparision</t>
+  </si>
+  <si>
+    <t>If my start time of First Event is greater than start time of Second event but less that the end time of the Second Event. We have a conflict. Similarly, if the second event has start time after the start of the first event but smaller than the ending of the first event, then also we have a conflict. Return true in these cases.</t>
+  </si>
+  <si>
+    <t>Number of Subarrays with GCD equal to K</t>
+  </si>
+  <si>
+    <t>Faster..</t>
+  </si>
+  <si>
+    <t>I thought of doing it by brute Force as constraints were small enough. I declared a variable count for storing the count of good subarrays.</t>
+  </si>
+  <si>
+    <t>Used Two For loops. Select a index i. Declare a variable num which will stored the gcd as we move ahead in the array. Now the second loop, j starts from i, till n - 1, we are calculating gcd between the num which is holding the gcd of all elements from i to j - 1, and the current element. If it is equal to k, then we increment our count and update our gcd variable num. If the gcd is less than k, then we cannot obtain any further good subarray starting from i, therefore we break. If gcd is greater than k, then we update the gcd variable num and continue. At the end we will return the count of good Subarrays.</t>
+  </si>
+  <si>
+    <t>1) Brute Force approach. This could solved using sliding window but as the constraints were small we can definitely go for Brute Force Approach.</t>
+  </si>
+  <si>
+    <t>Minimum Cost To Make Array Equal</t>
+  </si>
+  <si>
+    <t>No Idea. Didn't attempt as was not able to think of any strategy which I could use here.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1654,8 +1714,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1680,6 +1746,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF8B8B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1694,7 +1772,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -1723,6 +1801,16 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1730,6 +1818,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF8B8B"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2006,7 +2099,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F117" workbookViewId="0">
+    <sheetView topLeftCell="F117" workbookViewId="0">
       <selection activeCell="H119" sqref="H119"/>
     </sheetView>
   </sheetViews>
@@ -4169,18 +4262,105 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49C8E076-6495-494E-BF9F-2D5317908764}">
-  <dimension ref="A2:B2"/>
+  <dimension ref="A2:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15.77734375" customWidth="1"/>
+    <col min="3" max="3" width="35.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.44140625" customWidth="1"/>
+    <col min="5" max="5" width="49.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="10"/>
       <c r="B2" s="11" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D5" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="B6" t="s">
+        <v>406</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2446</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="E7" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="C8" s="18" t="s">
+        <v>416</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2447</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2448</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>420</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>421</v>
       </c>
     </row>
   </sheetData>

--- a/Learning/Competitive_Programming_Questions_Review.XLSX
+++ b/Learning/Competitive_Programming_Questions_Review.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\only one folder\CompetitiveProgramming Github Repo\Competitive-Programming\Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6497CAA-401C-49D0-888B-41318F8BB442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93CFE428-7EB1-4FDC-899E-EBBC9DBC08BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="424">
   <si>
     <t>Problem</t>
   </si>
@@ -1652,7 +1652,13 @@
     <t>Minimum Cost To Make Array Equal</t>
   </si>
   <si>
-    <t>No Idea. Didn't attempt as was not able to think of any strategy which I could use here.</t>
+    <t>No Idea. Didn't attempt as was not able to think of any strategy which I could use here. For an instant I thought I could use Binary Search but wasn't confident about it.</t>
+  </si>
+  <si>
+    <t>1) Binary Search</t>
+  </si>
+  <si>
+    <t>It is asked in question that we have to make all the array elements equal. The Range of the elements value is between 1 and 1e6. Therefore, it may be any value between this range. But that value is surely smaller than or equal to it's neighbours on either side. So it's a typical Binary Search Question where we find mid, and check for the mid if it's cost is smaller than (mid - 1) and (mid + 1). If yes return it as the ans. Or If our sum &gt; mid - 1. The value is definitely on the left  side and we limit our range (low, mid - 1). Similarly if sum(mid) &gt; sum(mid + 1), then our value is definitely between  (mid + 1, high), then we find the value in that range. This is how we get the smallest cost.</t>
   </si>
 </sst>
 </file>
@@ -4264,8 +4270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49C8E076-6495-494E-BF9F-2D5317908764}">
   <dimension ref="A2:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4352,7 +4358,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2448</v>
       </c>
@@ -4361,6 +4367,12 @@
       </c>
       <c r="C10" s="4" t="s">
         <v>421</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>423</v>
       </c>
     </row>
   </sheetData>

--- a/Learning/Competitive_Programming_Questions_Review.XLSX
+++ b/Learning/Competitive_Programming_Questions_Review.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\only one folder\CompetitiveProgramming Github Repo\Competitive-Programming\Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93CFE428-7EB1-4FDC-899E-EBBC9DBC08BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA289C1-0B37-44E0-8A86-E5C8EEACA7FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="429">
   <si>
     <t>Problem</t>
   </si>
@@ -1659,6 +1659,21 @@
   </si>
   <si>
     <t>It is asked in question that we have to make all the array elements equal. The Range of the elements value is between 1 and 1e6. Therefore, it may be any value between this range. But that value is surely smaller than or equal to it's neighbours on either side. So it's a typical Binary Search Question where we find mid, and check for the mid if it's cost is smaller than (mid - 1) and (mid + 1). If yes return it as the ans. Or If our sum &gt; mid - 1. The value is definitely on the left  side and we limit our range (low, mid - 1). Similarly if sum(mid) &gt; sum(mid + 1), then our value is definitely between  (mid + 1, high), then we find the value in that range. This is how we get the smallest cost.</t>
+  </si>
+  <si>
+    <t>Minimum Number of Operations to make arrays similar</t>
+  </si>
+  <si>
+    <t>Used Comparator to sort the array. Greedy Technique.</t>
+  </si>
+  <si>
+    <t>1) Greedy and Sorting using Comparator.</t>
+  </si>
+  <si>
+    <t>Using the Comparator, I sorted the array. The Sorting was specific. All the elements which were odd we present at the prefix of the array in Non-decreasing Order. Whereas all the even elements were part of the array's suffix. Now we know that some elements will be decreased and some will be increased. We will only consider the elements which increased. Because the corresponding increased elements will balance the elements which are decreased. Therefore find the difference of increased elements will be sufficient. IncreaseValue = 2. Divide the difference by 2 and return the answer.</t>
+  </si>
+  <si>
+    <t>2) Same On Discussion Forum - Sort Odd and Evens.</t>
   </si>
 </sst>
 </file>
@@ -4268,10 +4283,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49C8E076-6495-494E-BF9F-2D5317908764}">
-  <dimension ref="A2:E10"/>
+  <dimension ref="A2:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4373,6 +4388,28 @@
       </c>
       <c r="E10" s="4" t="s">
         <v>423</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2449</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D12" s="4" t="s">
+        <v>428</v>
       </c>
     </row>
   </sheetData>

--- a/Learning/Competitive_Programming_Questions_Review.XLSX
+++ b/Learning/Competitive_Programming_Questions_Review.XLSX
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\only one folder\CompetitiveProgramming Github Repo\Competitive-Programming\Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA289C1-0B37-44E0-8A86-E5C8EEACA7FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8E3786-309E-438B-A630-D26E394CCFE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="433">
   <si>
     <t>Problem</t>
   </si>
@@ -1674,6 +1674,18 @@
   </si>
   <si>
     <t>2) Same On Discussion Forum - Sort Odd and Evens.</t>
+  </si>
+  <si>
+    <t>Find Peak Element</t>
+  </si>
+  <si>
+    <t>Binary Search</t>
+  </si>
+  <si>
+    <t>Finding the peak mean searching the element. Which is efficient in Binary Search.</t>
+  </si>
+  <si>
+    <t>First Important thing before writing Binary Search Code is that, think about the smaller size cases like, size == 1, size == 2, size == 3, when you are sure they are working for them, then only submit the answer. Write standard Binary Search Code.</t>
   </si>
 </sst>
 </file>
@@ -2118,10 +2130,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H119"/>
+  <dimension ref="A1:H122"/>
   <sheetViews>
-    <sheetView topLeftCell="F117" workbookViewId="0">
-      <selection activeCell="H119" sqref="H119"/>
+    <sheetView tabSelected="1" topLeftCell="B120" workbookViewId="0">
+      <selection activeCell="H122" sqref="H122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4157,6 +4169,32 @@
       </c>
       <c r="H119" s="4" t="s">
         <v>401</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A122" s="5">
+        <v>44859</v>
+      </c>
+      <c r="B122">
+        <v>162</v>
+      </c>
+      <c r="C122" t="s">
+        <v>13</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="E122" t="s">
+        <v>430</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="G122" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="H122" s="4" t="s">
+        <v>432</v>
       </c>
     </row>
   </sheetData>
@@ -4285,7 +4323,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49C8E076-6495-494E-BF9F-2D5317908764}">
   <dimension ref="A2:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>

--- a/Learning/Competitive_Programming_Questions_Review.XLSX
+++ b/Learning/Competitive_Programming_Questions_Review.XLSX
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\only one folder\CompetitiveProgramming Github Repo\Competitive-Programming\Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8E3786-309E-438B-A630-D26E394CCFE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8134A29-17D9-45BA-A912-2A90E8E709EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="435">
   <si>
     <t>Problem</t>
   </si>
@@ -1686,6 +1686,12 @@
   </si>
   <si>
     <t>First Important thing before writing Binary Search Code is that, think about the smaller size cases like, size == 1, size == 2, size == 3, when you are sure they are working for them, then only submit the answer. Write standard Binary Search Code.</t>
+  </si>
+  <si>
+    <t>Biweekly Contest 90</t>
+  </si>
+  <si>
+    <t>Odd-String-Difference</t>
   </si>
 </sst>
 </file>
@@ -2132,7 +2138,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B120" workbookViewId="0">
+    <sheetView topLeftCell="B120" workbookViewId="0">
       <selection activeCell="H122" sqref="H122"/>
     </sheetView>
   </sheetViews>
@@ -4321,10 +4327,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49C8E076-6495-494E-BF9F-2D5317908764}">
-  <dimension ref="A2:E12"/>
+  <dimension ref="A2:E16"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4448,6 +4454,19 @@
     <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D12" s="4" t="s">
         <v>428</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>2451</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>434</v>
       </c>
     </row>
   </sheetData>

--- a/Learning/Competitive_Programming_Questions_Review.XLSX
+++ b/Learning/Competitive_Programming_Questions_Review.XLSX
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\only one folder\CompetitiveProgramming Github Repo\Competitive-Programming\Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8134A29-17D9-45BA-A912-2A90E8E709EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382AEF5E-A452-4BC0-B3BF-608129098226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="440">
   <si>
     <t>Problem</t>
   </si>
@@ -1692,6 +1692,21 @@
   </si>
   <si>
     <t>Odd-String-Difference</t>
+  </si>
+  <si>
+    <t>Codechef Starter 62</t>
+  </si>
+  <si>
+    <t>D.</t>
+  </si>
+  <si>
+    <t>Mininum Absolute Score</t>
+  </si>
+  <si>
+    <t>Thought of Recursion Instantly, but took a long time to implement it.</t>
+  </si>
+  <si>
+    <t>1) Using Recursion + Memoization</t>
   </si>
 </sst>
 </file>
@@ -4327,10 +4342,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49C8E076-6495-494E-BF9F-2D5317908764}">
-  <dimension ref="A2:E16"/>
+  <dimension ref="A2:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4467,6 +4482,25 @@
       </c>
       <c r="B16" s="7" t="s">
         <v>434</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
   </sheetData>
